--- a/MALT191104.xlsx
+++ b/MALT191104.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1185" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1260" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Command Table" sheetId="6" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="CAN Bus Speed" sheetId="11" r:id="rId7"/>
     <sheet name="MALTMMI" sheetId="12" r:id="rId8"/>
     <sheet name="MALTMMI IO" sheetId="13" r:id="rId9"/>
+    <sheet name="Todo" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="864">
   <si>
     <t>A #10 jelenti a 10-es cimet</t>
   </si>
@@ -2001,10 +2002,6 @@
 </t>
   </si>
   <si>
-    <t>Nem kompatibilis a YAV rendszerével
-A kimenetek sátutászát frissíti</t>
-  </si>
-  <si>
     <t>Read EEPROM</t>
   </si>
   <si>
@@ -2854,18 +2851,43 @@
   <si>
     <t>0x16</t>
   </si>
+  <si>
+    <t>Nem kompatibilis a YAV rendszerével
+A kimenetek sátutászát frissíti
+220914: MALTCVI24-nél tudomásul vettem…</t>
+  </si>
+  <si>
+    <t>Card Soft Reset
+220914 - YAV90132</t>
+  </si>
+  <si>
+    <t>DFU frissítésnél külön lehet paraméterezni… a sebességet…. De mért??? Jobb szupport kell hozzzá</t>
+  </si>
+  <si>
+    <t>DFU panel feleslegesen bonyolult</t>
+  </si>
+  <si>
+    <t>DFU-nak mások voltak a sebbesség beállításai mint a MALT-nak… ezt javítottam 220914_2320-án</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3260,22 +3282,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3288,7 +3310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3297,25 +3319,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3330,10 +3352,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3357,7 +3379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3366,7 +3388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3384,16 +3406,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3406,19 +3428,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3431,7 +3453,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3439,7 +3461,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3454,10 +3476,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3468,44 +3490,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3523,41 +3560,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4601,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V62"/>
+  <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:O44"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,33 +4653,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="98" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98" t="s">
         <v>732</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93" t="s">
-        <v>733</v>
-      </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
     </row>
     <row r="2" spans="2:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>582</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>590</v>
@@ -4666,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>22</v>
@@ -4696,37 +4721,37 @@
         <v>57</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>567</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="28" t="s">
         <v>25</v>
       </c>
@@ -4734,7 +4759,7 @@
         <v>24</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T3" s="28" t="s">
         <v>571</v>
@@ -4743,12 +4768,12 @@
         <v>570</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4759,7 +4784,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>63</v>
@@ -4768,7 +4793,7 @@
         <v>64</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
@@ -4810,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>63</v>
@@ -4819,7 +4844,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
@@ -4848,11 +4873,11 @@
     </row>
     <row r="6" spans="2:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>581</v>
@@ -4861,7 +4886,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>65</v>
@@ -4873,19 +4898,19 @@
         <v>25</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>66</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N6" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="O6" s="45" t="s">
         <v>659</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>660</v>
       </c>
       <c r="P6" s="45"/>
       <c r="Q6" s="58" t="s">
@@ -4912,7 +4937,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>23</v>
@@ -4922,7 +4947,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
@@ -4939,7 +4964,7 @@
     </row>
     <row r="8" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -4954,13 +4979,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J8" s="45" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L8" s="45" t="s">
         <v>29</v>
@@ -4985,7 +5010,7 @@
     </row>
     <row r="9" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -5000,13 +5025,13 @@
         <v>4</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J9" s="45" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>25</v>
@@ -5033,19 +5058,19 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="81" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F10" s="82" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H10" s="83" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J10" s="82" t="s">
         <v>59</v>
@@ -5072,34 +5097,34 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="81" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F11" s="82" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H11" s="83" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J11" s="82" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="82" t="s">
+        <v>647</v>
+      </c>
+      <c r="L11" s="82" t="s">
         <v>648</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="M11" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="N11" s="82" t="s">
         <v>650</v>
-      </c>
-      <c r="N11" s="82" t="s">
-        <v>651</v>
       </c>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
@@ -5124,34 +5149,34 @@
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="M12" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="N12" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O12" s="45" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q12" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>568</v>
@@ -5160,7 +5185,7 @@
         <v>568</v>
       </c>
       <c r="T12" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U12" s="45"/>
     </row>
@@ -5176,34 +5201,34 @@
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J13" s="45" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L13" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="M13" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="N13" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q13" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>568</v>
@@ -5212,7 +5237,7 @@
         <v>568</v>
       </c>
       <c r="T13" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U13" s="45"/>
     </row>
@@ -5228,34 +5253,34 @@
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J14" s="45" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L14" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="M14" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="N14" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O14" s="45" t="s">
         <v>59</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>568</v>
@@ -5264,99 +5289,86 @@
         <v>568</v>
       </c>
       <c r="T14" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>602</v>
+    <row r="15" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="5" t="s">
+        <v>860</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="45"/>
-      <c r="H15" s="48">
+      <c r="H15" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="45"/>
+    </row>
+    <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="48">
         <v>3</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="S15" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="T15" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="U15" s="45"/>
-      <c r="V15" s="87" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="35" t="s">
-        <v>738</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="48" t="s">
-        <v>65</v>
-      </c>
       <c r="I16" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J16" s="45" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="O16" s="45" t="s">
-        <v>654</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="59" t="s">
-        <v>695</v>
+      <c r="Q16" s="58" t="s">
+        <v>568</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>568</v>
@@ -5364,52 +5376,64 @@
       <c r="S16" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="T16" s="59" t="s">
-        <v>692</v>
+      <c r="T16" s="58" t="s">
+        <v>568</v>
       </c>
       <c r="U16" s="45"/>
       <c r="V16" s="87" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="35"/>
+      <c r="D17" s="35" t="s">
+        <v>737</v>
+      </c>
       <c r="E17" s="47" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="48" t="s">
-        <v>584</v>
+        <v>65</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>675</v>
+        <v>33</v>
       </c>
       <c r="K17" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L17" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="M17" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="N17" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="N17" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="O17" s="45"/>
+      <c r="O17" s="45" t="s">
+        <v>653</v>
+      </c>
       <c r="P17" s="45"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="59"/>
+      <c r="Q17" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="R17" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="T17" s="59" t="s">
+        <v>691</v>
+      </c>
       <c r="U17" s="45"/>
       <c r="V17" s="87" t="s">
         <v>568</v>
@@ -5420,7 +5444,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="35"/>
       <c r="E18" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>23</v>
@@ -5430,22 +5454,22 @@
         <v>584</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
       <c r="K18" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="M18" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="N18" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
@@ -5463,34 +5487,32 @@
       <c r="C19" s="30"/>
       <c r="D19" s="35"/>
       <c r="E19" s="47" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>741</v>
-      </c>
+      <c r="G19" s="45"/>
       <c r="H19" s="48" t="s">
         <v>584</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>45</v>
+        <v>735</v>
       </c>
       <c r="K19" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="M19" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="N19" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
@@ -5503,81 +5525,80 @@
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="47" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="H20" s="48">
-        <v>3</v>
+        <v>740</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>584</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J20" s="45" t="s">
         <v>45</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+        <v>647</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="58" t="s">
-        <v>568</v>
-      </c>
+      <c r="Q20" s="59"/>
       <c r="R20" s="58"/>
       <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
+      <c r="T20" s="59"/>
       <c r="U20" s="45"/>
-    </row>
-    <row r="21" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="35" t="s">
-        <v>683</v>
-      </c>
+      <c r="V20" s="87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="E21" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48" t="s">
-        <v>584</v>
+        <v>23</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="H21" s="48">
+        <v>3</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>45</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="M21" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>654</v>
-      </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="28" t="s">
-        <v>695</v>
+        <v>58</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="58" t="s">
+        <v>568</v>
       </c>
       <c r="R21" s="58"/>
       <c r="S21" s="58"/>
@@ -5587,73 +5608,76 @@
     <row r="22" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="88" t="s">
-        <v>748</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="85" t="s">
-        <v>741</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>624</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>750</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87" t="s">
-        <v>568</v>
-      </c>
+      <c r="D22" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>596</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="45"/>
     </row>
     <row r="23" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="35"/>
       <c r="E23" s="88" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G23" s="85" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>67</v>
       </c>
       <c r="I23" s="85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K23" s="85" t="s">
-        <v>648</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>649</v>
-      </c>
-      <c r="M23" s="85" t="s">
-        <v>650</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
       <c r="P23" s="85"/>
@@ -5666,51 +5690,57 @@
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="42" t="s">
+    <row r="24" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="88" t="s">
+        <v>748</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>741</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>749</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>647</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>648</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>649</v>
+      </c>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>609</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="K24" s="56" t="s">
-        <v>647</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>610</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>23</v>
@@ -5720,18 +5750,18 @@
         <v>569</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>566</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="M25" s="53"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
@@ -5742,12 +5772,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+    <row r="26" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
       <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="13" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>23</v>
@@ -5757,16 +5787,16 @@
         <v>569</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J26" s="45" t="s">
         <v>566</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L26" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
@@ -5775,88 +5805,84 @@
       <c r="R26" s="58"/>
       <c r="S26" s="58"/>
       <c r="T26" s="58"/>
-      <c r="U26" s="45"/>
-    </row>
-    <row r="27" spans="2:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
-        <v>681</v>
-      </c>
+      <c r="U26" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="13" t="s">
-        <v>608</v>
+        <v>673</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G27" s="45"/>
       <c r="H27" s="48" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>566</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M27" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N27" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O27" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="R27" s="58"/>
       <c r="S27" s="58"/>
       <c r="T27" s="58"/>
-      <c r="U27" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>627</v>
+      <c r="U27" s="45"/>
+    </row>
+    <row r="28" spans="2:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>645</v>
       </c>
       <c r="C28" s="46"/>
-      <c r="D28" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>612</v>
+      <c r="D28" s="46" t="s">
+        <v>680</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>608</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="48" t="s">
-        <v>569</v>
+        <v>65</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>35</v>
+        <v>566</v>
       </c>
       <c r="K28" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="L28" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
+      <c r="M28" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P28" s="45"/>
       <c r="R28" s="58"/>
       <c r="S28" s="58"/>
@@ -5866,11 +5892,15 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
+      <c r="B29" s="38" t="s">
+        <v>626</v>
+      </c>
       <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="41" t="s">
+        <v>572</v>
+      </c>
       <c r="E29" s="39" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>23</v>
@@ -5880,16 +5910,16 @@
         <v>569</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J29" s="45" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
@@ -5902,45 +5932,35 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>628</v>
-      </c>
+    <row r="30" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="46"/>
       <c r="C30" s="46"/>
-      <c r="D30" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>611</v>
+      <c r="D30" s="46"/>
+      <c r="E30" s="39" t="s">
+        <v>664</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="48" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J30" s="45" t="s">
         <v>35</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N30" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O30" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
       <c r="P30" s="45"/>
       <c r="R30" s="58"/>
       <c r="S30" s="58"/>
@@ -5949,39 +5969,45 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
-        <v>574</v>
+    <row r="31" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>627</v>
       </c>
       <c r="C31" s="46"/>
-      <c r="D31" s="41" t="s">
-        <v>626</v>
+      <c r="D31" s="55" t="s">
+        <v>681</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="48" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K31" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="L31" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="L31" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
+      <c r="M31" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P31" s="45"/>
       <c r="R31" s="58"/>
       <c r="S31" s="58"/>
@@ -5990,44 +6016,40 @@
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="12"/>
+    <row r="32" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="41" t="s">
+        <v>625</v>
+      </c>
       <c r="E32" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="48" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J32" s="45" t="s">
         <v>37</v>
       </c>
       <c r="K32" s="56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="O32" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="P32" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
       <c r="R32" s="58"/>
       <c r="S32" s="58"/>
       <c r="T32" s="58"/>
@@ -6036,45 +6058,43 @@
       </c>
     </row>
     <row r="33" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46" t="s">
-        <v>680</v>
-      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="48" t="s">
-        <v>584</v>
+        <v>65</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J33" s="45" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="N33" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="O33" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="N33" s="45" t="s">
+      <c r="P33" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="O33" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="P33" s="45"/>
       <c r="R33" s="58"/>
       <c r="S33" s="58"/>
       <c r="T33" s="58"/>
@@ -6082,39 +6102,45 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
-        <v>690</v>
+    <row r="34" spans="2:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="38" t="s">
+        <v>624</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="46" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>688</v>
+        <v>613</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="48" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="L34" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="L34" s="45" t="s">
-        <v>689</v>
-      </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="M34" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P34" s="45"/>
       <c r="R34" s="58"/>
       <c r="S34" s="58"/>
@@ -6123,34 +6149,36 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="31" t="s">
-        <v>572</v>
+    <row r="35" spans="2:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
+        <v>686</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>575</v>
+        <v>687</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="48" t="s">
-        <v>67</v>
+        <v>569</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="45"/>
+        <v>646</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>688</v>
+      </c>
       <c r="M35" s="45"/>
       <c r="N35" s="45"/>
       <c r="O35" s="45"/>
@@ -6162,28 +6190,32 @@
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="46" t="s">
-        <v>679</v>
+    <row r="36" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="31" t="s">
+        <v>572</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G36" s="45"/>
       <c r="H36" s="48" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J36" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="K36" s="45" t="s">
-        <v>673</v>
+      <c r="K36" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
@@ -6198,39 +6230,37 @@
       </c>
     </row>
     <row r="37" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="46"/>
-      <c r="E37" s="90" t="s">
-        <v>745</v>
-      </c>
-      <c r="F37" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>741</v>
-      </c>
-      <c r="H37" s="91" t="s">
+      <c r="D37" s="46" t="s">
+        <v>678</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="85" t="s">
-        <v>624</v>
-      </c>
-      <c r="J37" s="85" t="s">
-        <v>740</v>
-      </c>
-      <c r="K37" s="85" t="s">
-        <v>648</v>
-      </c>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85" t="s">
+      <c r="I37" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>576</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="45" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6243,18 +6273,20 @@
         <v>23</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I38" s="85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>585</v>
-      </c>
-      <c r="K38" s="85"/>
+        <v>739</v>
+      </c>
+      <c r="K38" s="85" t="s">
+        <v>647</v>
+      </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85"/>
       <c r="N38" s="85"/>
@@ -6275,23 +6307,21 @@
         <v>743</v>
       </c>
       <c r="F39" s="85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G39" s="85" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H39" s="91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I39" s="85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J39" s="85" t="s">
         <v>585</v>
       </c>
-      <c r="K39" s="85" t="s">
-        <v>648</v>
-      </c>
+      <c r="K39" s="85"/>
       <c r="L39" s="85"/>
       <c r="M39" s="85"/>
       <c r="N39" s="85"/>
@@ -6306,78 +6336,72 @@
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="31" t="s">
+    <row r="40" spans="2:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="46"/>
+      <c r="E40" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="F40" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="85" t="s">
+        <v>741</v>
+      </c>
+      <c r="H40" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J40" s="85" t="s">
+        <v>585</v>
+      </c>
+      <c r="K40" s="85" t="s">
+        <v>647</v>
+      </c>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="31" t="s">
         <v>572</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J41" s="36" t="s">
         <v>585</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N41" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O41" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="45"/>
       <c r="R41" s="58"/>
       <c r="S41" s="58"/>
@@ -6386,43 +6410,41 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="33" t="s">
-        <v>678</v>
-      </c>
+    <row r="42" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="57" t="s">
-        <v>584</v>
+        <v>65</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K42" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="M42" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L42" s="45" t="s">
+      <c r="N42" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M42" s="45" t="s">
+      <c r="O42" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="N42" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="R42" s="58"/>
       <c r="S42" s="58"/>
@@ -6431,93 +6453,82 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="s">
-        <v>592</v>
+    <row r="43" spans="2:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>607</v>
       </c>
       <c r="C43" s="46"/>
-      <c r="D43" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="48">
-        <v>3</v>
+      <c r="D43" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="57" t="s">
+        <v>584</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="J43" s="45" t="s">
-        <v>40</v>
+        <v>623</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>585</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
+        <v>647</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="O43" s="45"/>
       <c r="P43" s="45"/>
-      <c r="Q43" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="R43" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="S43" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="T43" s="58" t="s">
-        <v>568</v>
-      </c>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
       <c r="U43" s="45" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
-        <v>594</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35" t="s">
-        <v>593</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>578</v>
+    <row r="44" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J44" s="45" t="s">
         <v>40</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M44" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N44" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O44" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="58" t="s">
         <v>568</v>
@@ -6535,34 +6546,45 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="E45" s="27" t="s">
-        <v>668</v>
+      <c r="D45" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
+        <v>28</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="M45" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P45" s="45"/>
       <c r="Q45" s="58" t="s">
         <v>568</v>
@@ -6576,11 +6598,13 @@
       <c r="T45" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="U45" s="45"/>
-    </row>
-    <row r="46" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C46" s="35"/>
       <c r="E46" s="27" t="s">
@@ -6591,20 +6615,18 @@
       </c>
       <c r="G46" s="45"/>
       <c r="H46" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K46" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="45" t="s">
-        <v>662</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L46" s="45"/>
       <c r="M46" s="45"/>
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
@@ -6623,26 +6645,23 @@
       </c>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C47" s="35"/>
-      <c r="D47" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="27" t="s">
         <v>666</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G47" s="45"/>
       <c r="H47" s="48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J47" s="45" t="s">
         <v>34</v>
@@ -6651,20 +6670,12 @@
         <v>25</v>
       </c>
       <c r="L47" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="M47" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="N47" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="O47" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="P47" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
       <c r="Q47" s="58" t="s">
         <v>568</v>
       </c>
@@ -6679,37 +6690,48 @@
       </c>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>702</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>670</v>
+        <v>618</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G48" s="45"/>
       <c r="H48" s="48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J48" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K48" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
+        <v>25</v>
+      </c>
+      <c r="L48" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="M48" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="N48" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="O48" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="P48" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="Q48" s="58" t="s">
         <v>568</v>
       </c>
@@ -6725,26 +6747,30 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="E49" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="F49" s="53" t="s">
+      <c r="B49" s="112" t="s">
+        <v>859</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="F49" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="48" t="s">
-        <v>67</v>
+      <c r="G49" s="45"/>
+      <c r="H49" s="48">
+        <v>3</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J49" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="45" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L49" s="45"/>
       <c r="M49" s="45"/>
@@ -6763,28 +6789,23 @@
       <c r="T49" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="U49" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="V49" s="58" t="s">
-        <v>568</v>
-      </c>
+      <c r="U49" s="45"/>
     </row>
     <row r="50" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
-      <c r="E50" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="45"/>
+      <c r="E50" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="53"/>
       <c r="H50" s="48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J50" s="45" t="s">
         <v>34</v>
@@ -6792,18 +6813,10 @@
       <c r="K50" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M50" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N50" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O50" s="45" t="s">
-        <v>651</v>
-      </c>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="58" t="s">
         <v>568</v>
@@ -6828,28 +6841,36 @@
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="E51" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G51" s="45"/>
       <c r="H51" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I51" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J51" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
+        <v>33</v>
+      </c>
+      <c r="L51" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="M51" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O51" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P51" s="45"/>
       <c r="Q51" s="58" t="s">
         <v>568</v>
@@ -6873,11 +6894,8 @@
     <row r="52" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
-      <c r="D52" t="s">
-        <v>605</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>601</v>
+      <c r="E52" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>23</v>
@@ -6887,13 +6905,13 @@
         <v>67</v>
       </c>
       <c r="I52" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J52" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K52" s="45" t="s">
-        <v>35</v>
+        <v>674</v>
       </c>
       <c r="L52" s="45"/>
       <c r="M52" s="45"/>
@@ -6923,26 +6941,26 @@
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G53" s="45"/>
       <c r="H53" s="48" t="s">
         <v>67</v>
       </c>
       <c r="I53" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J53" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L53" s="45"/>
       <c r="M53" s="45"/>
@@ -6972,39 +6990,47 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" t="s">
-        <v>708</v>
+        <v>606</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G54" s="45"/>
       <c r="H54" s="48" t="s">
-        <v>569</v>
+        <v>67</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J54" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K54" s="45" t="s">
-        <v>703</v>
-      </c>
-      <c r="L54" s="45" t="s">
-        <v>707</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L54" s="45"/>
       <c r="M54" s="45"/>
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
       <c r="P54" s="45"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="45"/>
+      <c r="Q54" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="R54" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="S54" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="T54" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="U54" s="45" t="s">
+        <v>568</v>
+      </c>
       <c r="V54" s="58" t="s">
         <v>568</v>
       </c>
@@ -7012,40 +7038,34 @@
     <row r="55" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
-      <c r="D55" s="34" t="s">
-        <v>706</v>
+      <c r="D55" t="s">
+        <v>707</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="48" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="I55" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K55" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L55" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M55" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N55" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O55" s="45" t="s">
-        <v>651</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="58"/>
       <c r="R55" s="58"/>
@@ -7059,30 +7079,40 @@
     <row r="56" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="34"/>
+      <c r="D56" s="34" t="s">
+        <v>705</v>
+      </c>
       <c r="E56" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="53"/>
+        <v>704</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="45"/>
       <c r="H56" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I56" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J56" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K56" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
+        <v>702</v>
+      </c>
+      <c r="L56" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="M56" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N56" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O56" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P56" s="45"/>
       <c r="Q56" s="58"/>
       <c r="R56" s="58"/>
@@ -7098,17 +7128,17 @@
       <c r="C57" s="35"/>
       <c r="D57" s="34"/>
       <c r="E57" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="45"/>
+        <v>729</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="53"/>
       <c r="H57" s="48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I57" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J57" s="45" t="s">
         <v>34</v>
@@ -7116,18 +7146,10 @@
       <c r="K57" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="L57" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="M57" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="N57" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="O57" s="45" t="s">
-        <v>651</v>
-      </c>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="58"/>
       <c r="R57" s="58"/>
@@ -7141,80 +7163,76 @@
     <row r="58" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="27" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G58" s="45"/>
       <c r="H58" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I58" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J58" s="45" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K58" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
+        <v>571</v>
+      </c>
+      <c r="L58" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="M58" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="N58" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O58" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="P58" s="45"/>
       <c r="Q58" s="58"/>
-      <c r="R58" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="S58" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="T58" s="58" t="s">
-        <v>568</v>
-      </c>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
       <c r="U58" s="45"/>
       <c r="V58" s="58" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="5" t="s">
-        <v>620</v>
+    <row r="59" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="E59" s="27" t="s">
+        <v>685</v>
       </c>
       <c r="F59" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G59" s="45"/>
-      <c r="H59" s="48">
-        <v>5</v>
+      <c r="H59" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J59" s="45" t="s">
         <v>60</v>
       </c>
       <c r="K59" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L59" s="45" t="s">
-        <v>655</v>
-      </c>
-      <c r="M59" s="45" t="s">
-        <v>656</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
       <c r="P59" s="45"/>
-      <c r="Q59" s="58" t="s">
-        <v>568</v>
-      </c>
+      <c r="Q59" s="58"/>
       <c r="R59" s="58" t="s">
         <v>568</v>
       </c>
@@ -7224,29 +7242,27 @@
       <c r="T59" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="U59" s="45" t="s">
-        <v>568</v>
-      </c>
+      <c r="U59" s="45"/>
       <c r="V59" s="58" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="44"/>
       <c r="E60" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G60" s="45"/>
       <c r="H60" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I60" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J60" s="45" t="s">
         <v>60</v>
@@ -7255,17 +7271,13 @@
         <v>61</v>
       </c>
       <c r="L60" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="M60" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="M60" s="45" t="s">
-        <v>656</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="O60" s="45" t="s">
-        <v>658</v>
-      </c>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="58" t="s">
         <v>568</v>
@@ -7286,37 +7298,40 @@
         <v>568</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G61" s="45"/>
       <c r="H61" s="48">
         <v>7</v>
       </c>
       <c r="I61" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J61" s="45" t="s">
         <v>60</v>
       </c>
       <c r="K61" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="M61" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="M61" s="45" t="s">
+      <c r="N61" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="N61" s="45" t="s">
+      <c r="O61" s="45" t="s">
         <v>657</v>
-      </c>
-      <c r="O61" s="45" t="s">
-        <v>658</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="58" t="s">
@@ -7338,7 +7353,59 @@
         <v>568</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="45"/>
+      <c r="H62" s="48">
+        <v>7</v>
+      </c>
+      <c r="I62" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="J62" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="M62" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="N62" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="O62" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="R62" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="S62" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="T62" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="U62" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="V62" s="58" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F1:P1"/>
@@ -7348,6 +7415,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="D22:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7381,33 +7481,33 @@
     <row r="2" spans="2:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
       <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
       <c r="C3" s="63"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -7441,20 +7541,20 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
       <c r="F5" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="65" t="s">
         <v>77</v>
       </c>
@@ -7535,7 +7635,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>70</v>
@@ -7570,7 +7670,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>70</v>
@@ -7578,21 +7678,21 @@
       <c r="E9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="72"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="72" t="s">
         <v>70</v>
       </c>
@@ -7618,8 +7718,8 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="72" t="s">
         <v>70</v>
       </c>
@@ -11257,7 +11357,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11274,35 +11374,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D2">
         <f xml:space="preserve"> B2+ E2-1</f>
@@ -11312,23 +11412,23 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B9" si="0">E2+B2</f>
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D3">
         <f>B3 + E3-1</f>
@@ -11338,23 +11438,23 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D4">
         <f>B4 + E4-1</f>
@@ -11364,23 +11464,23 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D5">
         <f>B5 + E5-1</f>
@@ -11390,23 +11490,23 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D6">
         <f>B6 + E6-1</f>
@@ -11416,23 +11516,23 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D9" si="1">B7 + E7-1</f>
@@ -11442,23 +11542,23 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -11468,23 +11568,23 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -11494,10 +11594,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H9" s="50"/>
     </row>
@@ -11510,7 +11610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A174"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
@@ -11760,7 +11860,7 @@
         <v>5001</v>
       </c>
       <c r="B1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11768,7 +11868,7 @@
         <v>5002</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11776,7 +11876,7 @@
         <v>5003</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11784,7 +11884,7 @@
         <v>5004</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11792,7 +11892,7 @@
         <v>5005</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11800,7 +11900,7 @@
         <v>5006</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11808,7 +11908,7 @@
         <v>5007</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11816,7 +11916,7 @@
         <v>5008</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11824,7 +11924,7 @@
         <v>5009</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11832,7 +11932,7 @@
         <v>5010</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -11845,7 +11945,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11860,37 +11960,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>719</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="C1" s="73" t="s">
         <v>720</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="D1" s="73" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="E1" s="74" t="s">
         <v>722</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="F1" s="73" t="s">
         <v>723</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="G1" s="74" t="s">
         <v>724</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="H1" s="73" t="s">
         <v>725</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>726</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="J1" s="74" t="s">
         <v>727</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="K1" s="74" t="s">
         <v>728</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12148,9 +12248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12174,7 +12274,7 @@
         <v>582</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C1" s="80" t="s">
         <v>590</v>
@@ -12186,7 +12286,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>22</v>
@@ -12218,7 +12318,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -12229,7 +12329,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G2" s="48" t="s">
         <v>63</v>
@@ -12238,7 +12338,7 @@
         <v>64</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
@@ -12262,7 +12362,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>63</v>
@@ -12271,7 +12371,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
@@ -12282,11 +12382,11 @@
     </row>
     <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>581</v>
@@ -12295,7 +12395,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>65</v>
@@ -12307,37 +12407,37 @@
         <v>25</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>66</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M4" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="N4" s="45" t="s">
         <v>659</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>660</v>
       </c>
       <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>59</v>
@@ -12350,43 +12450,43 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="108" t="s">
-        <v>857</v>
+      <c r="C6" s="94" t="s">
+        <v>856</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="I6" s="107" t="s">
+        <v>623</v>
+      </c>
+      <c r="I6" s="93" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K6" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="L6" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="M6" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>602</v>
@@ -12395,13 +12495,13 @@
         <v>23</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G7" s="48">
         <v>3</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I7" s="45" t="s">
         <v>33</v>
@@ -12422,8 +12522,8 @@
       <c r="U7" s="58"/>
     </row>
     <row r="8" spans="1:21" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="109" t="s">
-        <v>858</v>
+      <c r="C8" s="95" t="s">
+        <v>857</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>591</v>
@@ -12432,28 +12532,28 @@
         <v>27</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="I8" s="107" t="s">
+        <v>623</v>
+      </c>
+      <c r="I8" s="93" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="L8" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="M8" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
@@ -12472,28 +12572,28 @@
         <v>23</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>584</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J9" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="L9" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="M9" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
@@ -12512,28 +12612,28 @@
         <v>23</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>584</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J10" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K10" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="L10" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="L10" s="45" t="s">
+      <c r="M10" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
@@ -12552,28 +12652,28 @@
         <v>23</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>584</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K11" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="L11" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="M11" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
@@ -12586,22 +12686,22 @@
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>58</v>
@@ -12612,51 +12712,51 @@
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D13" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J13" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K13" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="L13" s="45" t="s">
         <v>649</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>650</v>
       </c>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D14" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G14" s="48">
         <v>3</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="I14" s="107" t="s">
+        <v>623</v>
+      </c>
+      <c r="I14" s="93" t="s">
         <v>570</v>
       </c>
       <c r="J14" s="36" t="s">
@@ -12665,71 +12765,71 @@
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D15" s="47" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G15" s="48">
         <v>4</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I15" s="45" t="s">
         <v>570</v>
       </c>
       <c r="J15" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="K15" s="45" t="s">
         <v>648</v>
-      </c>
-      <c r="K15" s="45" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D16" s="47" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G16" s="48">
         <v>3</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I16" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="J16" s="36" t="s">
         <v>754</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="17" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="47" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G17" s="89">
         <v>3</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>29</v>
@@ -12737,19 +12837,19 @@
     </row>
     <row r="18" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D18" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G18" s="89">
         <v>3</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>566</v>
@@ -12760,57 +12860,57 @@
     </row>
     <row r="19" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G19" s="89">
         <v>8</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>566</v>
       </c>
       <c r="J19" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="K19" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="L19" s="36" t="s">
         <v>761</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="M19" s="36" t="s">
         <v>762</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="N19" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="O19" s="36" t="s">
         <v>763</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="20" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G20" s="89" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>35</v>
@@ -12821,57 +12921,57 @@
     </row>
     <row r="21" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G21" s="89">
         <v>8</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J21" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="K21" s="36" t="s">
         <v>768</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="L21" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="M21" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="N21" s="36" t="s">
         <v>771</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="O21" s="36" t="s">
         <v>772</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="22" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D22" s="47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G22" s="89" t="s">
         <v>67</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>37</v>
@@ -12882,34 +12982,34 @@
     </row>
     <row r="23" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="47" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G23" s="89">
         <v>8</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="L23" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="M23" s="36" t="s">
         <v>778</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>779</v>
       </c>
       <c r="N23" s="36" t="s">
         <v>29</v>
@@ -12920,20 +13020,20 @@
     </row>
     <row r="24" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D24" s="47"/>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="110" t="s">
-        <v>741</v>
-      </c>
-      <c r="G24" s="111" t="s">
+      <c r="F24" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G24" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="I24" s="110" t="s">
-        <v>735</v>
+      <c r="H24" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>734</v>
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -12944,20 +13044,20 @@
     </row>
     <row r="25" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="47"/>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>741</v>
-      </c>
-      <c r="G25" s="111" t="s">
+      <c r="F25" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G25" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="I25" s="110" t="s">
-        <v>703</v>
+      <c r="H25" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>702</v>
       </c>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -12968,19 +13068,19 @@
     </row>
     <row r="26" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D26" s="47"/>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="110" t="s">
-        <v>741</v>
-      </c>
-      <c r="G26" s="111" t="s">
+      <c r="F26" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G26" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="I26" s="110" t="s">
+      <c r="H26" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I26" s="96" t="s">
         <v>571</v>
       </c>
       <c r="J26" s="36"/>
@@ -12992,20 +13092,20 @@
     </row>
     <row r="27" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="47"/>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>741</v>
-      </c>
-      <c r="G27" s="111" t="s">
+      <c r="F27" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G27" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="I27" s="110" t="s">
-        <v>859</v>
+      <c r="H27" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I27" s="96" t="s">
+        <v>858</v>
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -13016,25 +13116,25 @@
     </row>
     <row r="28" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D28" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G28" s="57" t="s">
         <v>67</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="45"/>
@@ -13049,21 +13149,21 @@
     </row>
     <row r="29" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D29" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G29" s="57" t="s">
         <v>63</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="I29" s="107" t="s">
+        <v>623</v>
+      </c>
+      <c r="I29" s="93" t="s">
         <v>585</v>
       </c>
       <c r="J29" s="45"/>
@@ -13080,25 +13180,25 @@
     </row>
     <row r="30" spans="3:21" ht="30" x14ac:dyDescent="0.25">
       <c r="D30" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G30" s="57" t="s">
         <v>67</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>585</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
@@ -13126,7 +13226,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I31" s="45" t="s">
         <v>40</v>
@@ -13156,13 +13256,13 @@
         <v>27</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G32" s="48">
         <v>7</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I32" s="45" t="s">
         <v>40</v>
@@ -13171,16 +13271,16 @@
         <v>28</v>
       </c>
       <c r="K32" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L32" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="M32" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="N32" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>651</v>
       </c>
       <c r="O32" s="45"/>
       <c r="Q32" s="58"/>
@@ -13191,7 +13291,7 @@
     </row>
     <row r="33" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E33" s="53" t="s">
         <v>23</v>
@@ -13201,7 +13301,7 @@
         <v>67</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I33" s="45" t="s">
         <v>34</v>
@@ -13216,19 +13316,19 @@
     </row>
     <row r="34" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>65</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I34" s="45" t="s">
         <v>34</v>
@@ -13237,21 +13337,21 @@
         <v>33</v>
       </c>
       <c r="K34" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L34" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="M34" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="N34" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E35" s="45" t="s">
         <v>23</v>
@@ -13261,13 +13361,13 @@
         <v>67</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I35" s="45" t="s">
         <v>34</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K35" s="45"/>
       <c r="L35" s="45"/>
@@ -13289,7 +13389,7 @@
         <v>67</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I36" s="45" t="s">
         <v>34</v>
@@ -13313,13 +13413,13 @@
         <v>27</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>67</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I37" s="45" t="s">
         <v>34</v>
@@ -13334,10 +13434,10 @@
     </row>
     <row r="38" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>23</v>
@@ -13347,16 +13447,16 @@
         <v>569</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I38" s="45" t="s">
         <v>34</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L38" s="45"/>
       <c r="M38" s="45"/>
@@ -13364,46 +13464,46 @@
     </row>
     <row r="39" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G39" s="48" t="s">
         <v>65</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I39" s="45" t="s">
         <v>34</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K39" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L39" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L39" s="45" t="s">
+      <c r="M39" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="N39" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="34"/>
       <c r="D40" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E40" s="53" t="s">
         <v>23</v>
@@ -13413,7 +13513,7 @@
         <v>67</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I40" s="45" t="s">
         <v>34</v>
@@ -13429,19 +13529,19 @@
     <row r="41" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="34"/>
       <c r="D41" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E41" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G41" s="48" t="s">
         <v>65</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I41" s="45" t="s">
         <v>34</v>
@@ -13450,21 +13550,21 @@
         <v>571</v>
       </c>
       <c r="K41" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L41" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="M41" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="M41" s="45" t="s">
+      <c r="N41" s="45" t="s">
         <v>650</v>
-      </c>
-      <c r="N41" s="45" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D42" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>23</v>
@@ -13474,7 +13574,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I42" s="45" t="s">
         <v>60</v>
@@ -13490,7 +13590,7 @@
     <row r="43" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="44"/>
       <c r="D43" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>23</v>
@@ -13500,7 +13600,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I43" s="45" t="s">
         <v>60</v>
@@ -13509,10 +13609,10 @@
         <v>61</v>
       </c>
       <c r="K43" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L43" s="45" t="s">
         <v>655</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>656</v>
       </c>
       <c r="M43" s="45"/>
       <c r="N43" s="45"/>
@@ -13520,19 +13620,19 @@
     <row r="44" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="44"/>
       <c r="D44" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E44" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G44" s="48">
         <v>7</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I44" s="45" t="s">
         <v>60</v>
@@ -13541,21 +13641,21 @@
         <v>61</v>
       </c>
       <c r="K44" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L44" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="L44" s="45" t="s">
+      <c r="M44" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="M44" s="45" t="s">
+      <c r="N44" s="45" t="s">
         <v>657</v>
-      </c>
-      <c r="N44" s="45" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D45" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>23</v>
@@ -13565,7 +13665,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I45" s="45" t="s">
         <v>60</v>
@@ -13574,16 +13674,16 @@
         <v>62</v>
       </c>
       <c r="K45" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L45" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="L45" s="45" t="s">
+      <c r="M45" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="M45" s="45" t="s">
+      <c r="N45" s="45" t="s">
         <v>657</v>
-      </c>
-      <c r="N45" s="45" t="s">
-        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -13612,32 +13712,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>791</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="E1" s="106" t="s">
-        <v>812</v>
-      </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="A1" s="111" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="E1" s="111" t="s">
+        <v>811</v>
+      </c>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>49</v>
@@ -13648,19 +13748,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13668,19 +13768,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13688,19 +13788,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>814</v>
+      </c>
+      <c r="G5" t="s">
         <v>815</v>
-      </c>
-      <c r="G5" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13708,19 +13808,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G6" t="s">
         <v>817</v>
-      </c>
-      <c r="G6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13728,19 +13828,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>829</v>
+      </c>
+      <c r="G7" t="s">
         <v>830</v>
-      </c>
-      <c r="G7" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13748,19 +13848,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>831</v>
+      </c>
+      <c r="G8" t="s">
         <v>832</v>
-      </c>
-      <c r="G8" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13768,19 +13868,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>833</v>
+      </c>
+      <c r="G9" t="s">
         <v>834</v>
-      </c>
-      <c r="G9" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13788,19 +13888,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>835</v>
+      </c>
+      <c r="G10" t="s">
         <v>836</v>
-      </c>
-      <c r="G10" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13808,19 +13908,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>837</v>
+      </c>
+      <c r="G11" t="s">
         <v>838</v>
-      </c>
-      <c r="G11" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13828,19 +13928,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G12" t="s">
         <v>840</v>
-      </c>
-      <c r="G12" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13848,19 +13948,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>841</v>
+      </c>
+      <c r="G13" t="s">
         <v>842</v>
-      </c>
-      <c r="G13" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13868,19 +13968,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14" t="s">
+        <v>843</v>
+      </c>
+      <c r="G14" t="s">
         <v>844</v>
-      </c>
-      <c r="G14" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -13888,19 +13988,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15" t="s">
+        <v>845</v>
+      </c>
+      <c r="G15" t="s">
         <v>846</v>
-      </c>
-      <c r="G15" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -13908,19 +14008,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16" t="s">
+        <v>847</v>
+      </c>
+      <c r="G16" t="s">
         <v>848</v>
-      </c>
-      <c r="G16" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13928,16 +14028,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13945,16 +14045,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13962,16 +14062,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13979,16 +14079,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13996,16 +14096,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14013,10 +14113,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -14027,7 +14127,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -14038,7 +14138,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -14049,7 +14149,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -14060,7 +14160,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -14071,7 +14171,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -14082,7 +14182,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -14093,7 +14193,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -14104,7 +14204,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -14115,7 +14215,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -14126,7 +14226,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -14137,7 +14237,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -14148,7 +14248,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E34">
         <v>32</v>

--- a/MALT191104.xlsx
+++ b/MALT191104.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1260" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1260"/>
   </bookViews>
   <sheets>
     <sheet name="Command Table" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="708">
   <si>
     <t>A #10 jelenti a 10-es cimet</t>
   </si>
@@ -2400,18 +2400,47 @@
   <si>
     <t>30, 31, 32</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MALT160TV00 up to V00.9A
+MALT23THVV00 up to V00.9A
+MLAT132V00 up to V00.9A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBSOLOTE!</t>
+    </r>
+  </si>
+  <si>
+    <t>last update: 230102</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2511,6 +2540,29 @@
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2889,22 +2941,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2917,7 +2969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,25 +2978,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2959,10 +3011,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2986,7 +3038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2995,7 +3047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3013,16 +3065,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3035,19 +3087,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3060,7 +3112,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3068,7 +3120,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,10 +3135,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3097,71 +3149,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,47 +3240,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4349,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,26 +4433,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
     </row>
     <row r="2" spans="2:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
@@ -4462,17 +4521,17 @@
     </row>
     <row r="3" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
       <c r="Q3" s="28" t="s">
         <v>25</v>
       </c>
@@ -7174,14 +7233,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L12"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
@@ -7200,39 +7260,36 @@
       <c r="L1" s="61"/>
     </row>
     <row r="2" spans="2:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
       <c r="C3" s="63"/>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
       <c r="L3" s="64"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="61"/>
       <c r="D4" s="65">
         <v>1</v>
@@ -7272,10 +7329,10 @@
       <c r="F5" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="65" t="s">
         <v>77</v>
       </c>
@@ -7318,7 +7375,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>74</v>
@@ -7353,7 +7410,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>551</v>
@@ -7399,21 +7456,21 @@
       <c r="E9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="72"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="72" t="s">
         <v>70</v>
       </c>
@@ -7437,10 +7494,12 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="61"/>
+      <c r="B11" s="123" t="s">
+        <v>706</v>
+      </c>
       <c r="C11" s="61"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="72" t="s">
         <v>70</v>
       </c>
@@ -7464,6 +7523,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="123"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -7474,8 +7534,18 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
+    <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="123"/>
+      <c r="J13" s="125" t="s">
+        <v>707</v>
+      </c>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D2:K2"/>
@@ -7484,7 +7554,7 @@
     <mergeCell ref="F3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7496,7 +7566,7 @@
   </sheetPr>
   <dimension ref="B1:AE35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
@@ -7559,8 +7629,8 @@
       <c r="H3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="20" t="s">
         <v>98</v>
       </c>
@@ -7573,8 +7643,8 @@
       <c r="N3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
       <c r="Q3" s="20" t="s">
         <v>98</v>
       </c>
@@ -7587,8 +7657,8 @@
       <c r="T3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
       <c r="W3" s="20" t="s">
         <v>98</v>
       </c>
@@ -7601,8 +7671,8 @@
       <c r="Z3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
       <c r="AC3" s="20" t="s">
         <v>98</v>
       </c>
@@ -7617,10 +7687,10 @@
       <c r="B4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="118" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="102">
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -7635,7 +7705,7 @@
       <c r="H4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="I4" s="118" t="s">
         <v>705</v>
       </c>
       <c r="J4" s="99">
@@ -7653,7 +7723,7 @@
       <c r="N4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="116" t="s">
+      <c r="O4" s="118" t="s">
         <v>705</v>
       </c>
       <c r="P4" s="99">
@@ -7671,7 +7741,7 @@
       <c r="T4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="118" t="s">
         <v>705</v>
       </c>
       <c r="V4" s="99"/>
@@ -7687,7 +7757,7 @@
       <c r="Z4" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AA4" s="116" t="s">
+      <c r="AA4" s="118" t="s">
         <v>705</v>
       </c>
       <c r="AB4" s="99">
@@ -7707,8 +7777,8 @@
       <c r="B5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="117">
+      <c r="C5" s="119"/>
+      <c r="D5" s="102">
         <v>67</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -7723,7 +7793,7 @@
       <c r="H5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="118"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="99">
         <v>41</v>
       </c>
@@ -7739,7 +7809,7 @@
       <c r="N5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="118"/>
+      <c r="O5" s="119"/>
       <c r="P5" s="99">
         <v>14</v>
       </c>
@@ -7755,7 +7825,7 @@
       <c r="T5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="118"/>
+      <c r="U5" s="119"/>
       <c r="V5" s="99"/>
       <c r="W5" s="14" t="s">
         <v>275</v>
@@ -7769,7 +7839,7 @@
       <c r="Z5" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" s="118"/>
+      <c r="AA5" s="119"/>
       <c r="AB5" s="99">
         <v>57</v>
       </c>
@@ -7787,8 +7857,8 @@
       <c r="B6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="117">
+      <c r="C6" s="119"/>
+      <c r="D6" s="102">
         <v>36</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -7803,7 +7873,7 @@
       <c r="H6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="118"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="99">
         <v>9</v>
       </c>
@@ -7819,7 +7889,7 @@
       <c r="N6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="118"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="99">
         <v>78</v>
       </c>
@@ -7835,7 +7905,7 @@
       <c r="T6" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="118"/>
+      <c r="U6" s="119"/>
       <c r="V6" s="99"/>
       <c r="W6" s="14" t="s">
         <v>276</v>
@@ -7849,7 +7919,7 @@
       <c r="Z6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="AA6" s="118"/>
+      <c r="AA6" s="119"/>
       <c r="AB6" s="99">
         <v>25</v>
       </c>
@@ -7867,8 +7937,8 @@
       <c r="B7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="117">
+      <c r="C7" s="119"/>
+      <c r="D7" s="102">
         <v>4</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -7883,7 +7953,7 @@
       <c r="H7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="118"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="99">
         <v>73</v>
       </c>
@@ -7899,7 +7969,7 @@
       <c r="N7" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="118"/>
+      <c r="O7" s="119"/>
       <c r="P7" s="99">
         <v>47</v>
       </c>
@@ -7915,7 +7985,7 @@
       <c r="T7" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="U7" s="118"/>
+      <c r="U7" s="119"/>
       <c r="V7" s="99"/>
       <c r="W7" s="14" t="s">
         <v>277</v>
@@ -7929,7 +7999,7 @@
       <c r="Z7" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="AA7" s="118"/>
+      <c r="AA7" s="119"/>
       <c r="AB7" s="99">
         <v>89</v>
       </c>
@@ -7947,8 +8017,8 @@
       <c r="B8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="117">
+      <c r="C8" s="119"/>
+      <c r="D8" s="102">
         <v>68</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -7963,7 +8033,7 @@
       <c r="H8" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="118"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="99">
         <v>42</v>
       </c>
@@ -7979,7 +8049,7 @@
       <c r="N8" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="118"/>
+      <c r="O8" s="119"/>
       <c r="P8" s="99">
         <v>15</v>
       </c>
@@ -7995,7 +8065,7 @@
       <c r="T8" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="U8" s="118"/>
+      <c r="U8" s="119"/>
       <c r="V8" s="99"/>
       <c r="W8" s="14" t="s">
         <v>278</v>
@@ -8009,7 +8079,7 @@
       <c r="Z8" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AA8" s="118"/>
+      <c r="AA8" s="119"/>
       <c r="AB8" s="99">
         <v>69</v>
       </c>
@@ -8027,8 +8097,8 @@
       <c r="B9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="117">
+      <c r="C9" s="119"/>
+      <c r="D9" s="102">
         <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -8043,7 +8113,7 @@
       <c r="H9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="99">
         <v>10</v>
       </c>
@@ -8059,7 +8129,7 @@
       <c r="N9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="118"/>
+      <c r="O9" s="119"/>
       <c r="P9" s="99">
         <v>79</v>
       </c>
@@ -8075,7 +8145,7 @@
       <c r="T9" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="118"/>
+      <c r="U9" s="119"/>
       <c r="V9" s="99"/>
       <c r="W9" s="14" t="s">
         <v>279</v>
@@ -8089,7 +8159,7 @@
       <c r="Z9" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="AA9" s="118"/>
+      <c r="AA9" s="119"/>
       <c r="AB9" s="99">
         <v>26</v>
       </c>
@@ -8107,8 +8177,8 @@
       <c r="B10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="117">
+      <c r="C10" s="119"/>
+      <c r="D10" s="102">
         <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -8123,7 +8193,7 @@
       <c r="H10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="118"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="99">
         <v>74</v>
       </c>
@@ -8139,7 +8209,7 @@
       <c r="N10" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="O10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="99">
         <v>48</v>
       </c>
@@ -8155,7 +8225,7 @@
       <c r="T10" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="U10" s="118"/>
+      <c r="U10" s="119"/>
       <c r="V10" s="99"/>
       <c r="W10" s="14" t="s">
         <v>280</v>
@@ -8169,7 +8239,7 @@
       <c r="Z10" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AA10" s="118"/>
+      <c r="AA10" s="119"/>
       <c r="AB10" s="99">
         <v>90</v>
       </c>
@@ -8187,8 +8257,8 @@
       <c r="B11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="117">
+      <c r="C11" s="120"/>
+      <c r="D11" s="102">
         <v>69</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -8203,7 +8273,7 @@
       <c r="H11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="119"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="99">
         <v>43</v>
       </c>
@@ -8219,7 +8289,7 @@
       <c r="N11" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="119"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="99">
         <v>16</v>
       </c>
@@ -8235,7 +8305,7 @@
       <c r="T11" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="U11" s="119"/>
+      <c r="U11" s="120"/>
       <c r="V11" s="99"/>
       <c r="W11" s="14" t="s">
         <v>281</v>
@@ -8249,7 +8319,7 @@
       <c r="Z11" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="AA11" s="119"/>
+      <c r="AA11" s="120"/>
       <c r="AB11" s="99">
         <v>59</v>
       </c>
@@ -8267,10 +8337,10 @@
       <c r="B12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="118" t="s">
         <v>704</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="102">
         <v>3</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -8285,7 +8355,7 @@
       <c r="H12" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="116" t="s">
+      <c r="I12" s="118" t="s">
         <v>704</v>
       </c>
       <c r="J12" s="99">
@@ -8303,7 +8373,7 @@
       <c r="N12" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="116" t="s">
+      <c r="O12" s="118" t="s">
         <v>704</v>
       </c>
       <c r="P12" s="99">
@@ -8321,7 +8391,7 @@
       <c r="T12" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="U12" s="116" t="s">
+      <c r="U12" s="118" t="s">
         <v>704</v>
       </c>
       <c r="V12" s="99"/>
@@ -8337,7 +8407,7 @@
       <c r="Z12" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="AA12" s="116" t="s">
+      <c r="AA12" s="118" t="s">
         <v>704</v>
       </c>
       <c r="AB12" s="99">
@@ -8357,8 +8427,8 @@
       <c r="B13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="117">
+      <c r="C13" s="119"/>
+      <c r="D13" s="102">
         <v>67</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -8373,7 +8443,7 @@
       <c r="H13" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="118"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="99">
         <v>41</v>
       </c>
@@ -8389,7 +8459,7 @@
       <c r="N13" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="118"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="99">
         <v>14</v>
       </c>
@@ -8405,7 +8475,7 @@
       <c r="T13" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="U13" s="118"/>
+      <c r="U13" s="119"/>
       <c r="V13" s="99"/>
       <c r="W13" s="15" t="s">
         <v>372</v>
@@ -8419,7 +8489,7 @@
       <c r="Z13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="AA13" s="118"/>
+      <c r="AA13" s="119"/>
       <c r="AB13" s="99">
         <v>57</v>
       </c>
@@ -8437,8 +8507,8 @@
       <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="117">
+      <c r="C14" s="119"/>
+      <c r="D14" s="102">
         <v>36</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -8453,7 +8523,7 @@
       <c r="H14" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="118"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="99">
         <v>9</v>
       </c>
@@ -8469,7 +8539,7 @@
       <c r="N14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="118"/>
+      <c r="O14" s="119"/>
       <c r="P14" s="99">
         <v>78</v>
       </c>
@@ -8485,7 +8555,7 @@
       <c r="T14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="U14" s="118"/>
+      <c r="U14" s="119"/>
       <c r="V14" s="99"/>
       <c r="W14" s="15" t="s">
         <v>373</v>
@@ -8499,7 +8569,7 @@
       <c r="Z14" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AA14" s="118"/>
+      <c r="AA14" s="119"/>
       <c r="AB14" s="99">
         <v>25</v>
       </c>
@@ -8517,8 +8587,8 @@
       <c r="B15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="117">
+      <c r="C15" s="119"/>
+      <c r="D15" s="102">
         <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -8533,7 +8603,7 @@
       <c r="H15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="118"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="99">
         <v>73</v>
       </c>
@@ -8549,7 +8619,7 @@
       <c r="N15" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O15" s="118"/>
+      <c r="O15" s="119"/>
       <c r="P15" s="99">
         <v>47</v>
       </c>
@@ -8565,7 +8635,7 @@
       <c r="T15" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="U15" s="118"/>
+      <c r="U15" s="119"/>
       <c r="V15" s="99"/>
       <c r="W15" s="15" t="s">
         <v>374</v>
@@ -8579,7 +8649,7 @@
       <c r="Z15" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AA15" s="118"/>
+      <c r="AA15" s="119"/>
       <c r="AB15" s="99">
         <v>89</v>
       </c>
@@ -8597,8 +8667,8 @@
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="117">
+      <c r="C16" s="119"/>
+      <c r="D16" s="102">
         <v>68</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -8613,7 +8683,7 @@
       <c r="H16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="99">
         <v>42</v>
       </c>
@@ -8629,7 +8699,7 @@
       <c r="N16" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="118"/>
+      <c r="O16" s="119"/>
       <c r="P16" s="99">
         <v>15</v>
       </c>
@@ -8645,7 +8715,7 @@
       <c r="T16" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="U16" s="118"/>
+      <c r="U16" s="119"/>
       <c r="V16" s="99"/>
       <c r="W16" s="15" t="s">
         <v>375</v>
@@ -8659,7 +8729,7 @@
       <c r="Z16" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="AA16" s="118"/>
+      <c r="AA16" s="119"/>
       <c r="AB16" s="99">
         <v>69</v>
       </c>
@@ -8677,8 +8747,8 @@
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="117">
+      <c r="C17" s="119"/>
+      <c r="D17" s="102">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -8693,7 +8763,7 @@
       <c r="H17" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="99">
         <v>10</v>
       </c>
@@ -8709,7 +8779,7 @@
       <c r="N17" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="O17" s="118"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="99">
         <v>79</v>
       </c>
@@ -8725,7 +8795,7 @@
       <c r="T17" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="118"/>
+      <c r="U17" s="119"/>
       <c r="V17" s="99"/>
       <c r="W17" s="15" t="s">
         <v>376</v>
@@ -8739,7 +8809,7 @@
       <c r="Z17" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="AA17" s="118"/>
+      <c r="AA17" s="119"/>
       <c r="AB17" s="99">
         <v>26</v>
       </c>
@@ -8757,8 +8827,8 @@
       <c r="B18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="117">
+      <c r="C18" s="119"/>
+      <c r="D18" s="102">
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -8773,7 +8843,7 @@
       <c r="H18" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="99">
         <v>74</v>
       </c>
@@ -8789,7 +8859,7 @@
       <c r="N18" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="O18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="99">
         <v>48</v>
       </c>
@@ -8805,7 +8875,7 @@
       <c r="T18" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="U18" s="118"/>
+      <c r="U18" s="119"/>
       <c r="V18" s="99"/>
       <c r="W18" s="15" t="s">
         <v>377</v>
@@ -8819,7 +8889,7 @@
       <c r="Z18" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="AA18" s="118"/>
+      <c r="AA18" s="119"/>
       <c r="AB18" s="99">
         <v>90</v>
       </c>
@@ -8837,8 +8907,8 @@
       <c r="B19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="117">
+      <c r="C19" s="120"/>
+      <c r="D19" s="102">
         <v>69</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -8853,7 +8923,7 @@
       <c r="H19" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="99">
         <v>43</v>
       </c>
@@ -8869,7 +8939,7 @@
       <c r="N19" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="O19" s="119"/>
+      <c r="O19" s="120"/>
       <c r="P19" s="99">
         <v>16</v>
       </c>
@@ -8885,7 +8955,7 @@
       <c r="T19" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="U19" s="119"/>
+      <c r="U19" s="120"/>
       <c r="V19" s="99"/>
       <c r="W19" s="15" t="s">
         <v>378</v>
@@ -8899,7 +8969,7 @@
       <c r="Z19" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="AA19" s="119"/>
+      <c r="AA19" s="120"/>
       <c r="AB19" s="99">
         <v>59</v>
       </c>
@@ -8917,10 +8987,10 @@
       <c r="B20" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="118" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="102">
         <v>38</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -8935,7 +9005,7 @@
       <c r="H20" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="118" t="s">
         <v>705</v>
       </c>
       <c r="J20" s="99">
@@ -8953,7 +9023,7 @@
       <c r="N20" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="O20" s="116" t="s">
+      <c r="O20" s="118" t="s">
         <v>705</v>
       </c>
       <c r="P20" s="99">
@@ -8971,7 +9041,7 @@
       <c r="T20" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="U20" s="116" t="s">
+      <c r="U20" s="118" t="s">
         <v>705</v>
       </c>
       <c r="V20" s="99"/>
@@ -8987,7 +9057,7 @@
       <c r="Z20" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="AA20" s="116" t="s">
+      <c r="AA20" s="118" t="s">
         <v>705</v>
       </c>
       <c r="AB20" s="99">
@@ -9007,8 +9077,8 @@
       <c r="B21" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="117">
+      <c r="C21" s="119"/>
+      <c r="D21" s="102">
         <v>6</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -9023,7 +9093,7 @@
       <c r="H21" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="99">
         <v>75</v>
       </c>
@@ -9039,7 +9109,7 @@
       <c r="N21" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="119"/>
       <c r="P21" s="99">
         <v>49</v>
       </c>
@@ -9055,7 +9125,7 @@
       <c r="T21" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="U21" s="118"/>
+      <c r="U21" s="119"/>
       <c r="V21" s="99"/>
       <c r="W21" s="14" t="s">
         <v>283</v>
@@ -9069,7 +9139,7 @@
       <c r="Z21" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="AA21" s="118"/>
+      <c r="AA21" s="119"/>
       <c r="AB21" s="99">
         <v>91</v>
       </c>
@@ -9087,8 +9157,8 @@
       <c r="B22" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="117">
+      <c r="C22" s="119"/>
+      <c r="D22" s="102">
         <v>70</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -9103,7 +9173,7 @@
       <c r="H22" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="118"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="99">
         <v>27</v>
       </c>
@@ -9119,7 +9189,7 @@
       <c r="N22" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="O22" s="118"/>
+      <c r="O22" s="119"/>
       <c r="P22" s="99">
         <v>17</v>
       </c>
@@ -9135,7 +9205,7 @@
       <c r="T22" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="U22" s="118"/>
+      <c r="U22" s="119"/>
       <c r="V22" s="99"/>
       <c r="W22" s="14" t="s">
         <v>284</v>
@@ -9149,7 +9219,7 @@
       <c r="Z22" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AA22" s="118"/>
+      <c r="AA22" s="119"/>
       <c r="AB22" s="99">
         <v>59</v>
       </c>
@@ -9167,8 +9237,8 @@
       <c r="B23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="117">
+      <c r="C23" s="119"/>
+      <c r="D23" s="102">
         <v>39</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -9183,7 +9253,7 @@
       <c r="H23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="99">
         <v>12</v>
       </c>
@@ -9199,7 +9269,7 @@
       <c r="N23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="99">
         <v>81</v>
       </c>
@@ -9215,7 +9285,7 @@
       <c r="T23" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="U23" s="118"/>
+      <c r="U23" s="119"/>
       <c r="V23" s="99"/>
       <c r="W23" s="14" t="s">
         <v>285</v>
@@ -9229,7 +9299,7 @@
       <c r="Z23" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AA23" s="118"/>
+      <c r="AA23" s="119"/>
       <c r="AB23" s="99">
         <v>28</v>
       </c>
@@ -9247,8 +9317,8 @@
       <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="117">
+      <c r="C24" s="119"/>
+      <c r="D24" s="102">
         <v>7</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -9263,7 +9333,7 @@
       <c r="H24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="118"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="99">
         <v>76</v>
       </c>
@@ -9279,7 +9349,7 @@
       <c r="N24" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="O24" s="118"/>
+      <c r="O24" s="119"/>
       <c r="P24" s="99">
         <v>50</v>
       </c>
@@ -9295,7 +9365,7 @@
       <c r="T24" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="U24" s="118"/>
+      <c r="U24" s="119"/>
       <c r="V24" s="99"/>
       <c r="W24" s="14" t="s">
         <v>286</v>
@@ -9309,7 +9379,7 @@
       <c r="Z24" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="AA24" s="118"/>
+      <c r="AA24" s="119"/>
       <c r="AB24" s="99">
         <v>92</v>
       </c>
@@ -9327,8 +9397,8 @@
       <c r="B25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="117">
+      <c r="C25" s="119"/>
+      <c r="D25" s="102">
         <v>71</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -9343,7 +9413,7 @@
       <c r="H25" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="99">
         <v>45</v>
       </c>
@@ -9359,7 +9429,7 @@
       <c r="N25" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="99">
         <v>18</v>
       </c>
@@ -9375,7 +9445,7 @@
       <c r="T25" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="U25" s="118"/>
+      <c r="U25" s="119"/>
       <c r="V25" s="99"/>
       <c r="W25" s="14" t="s">
         <v>287</v>
@@ -9389,7 +9459,7 @@
       <c r="Z25" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="AA25" s="118"/>
+      <c r="AA25" s="119"/>
       <c r="AB25" s="99">
         <v>61</v>
       </c>
@@ -9407,8 +9477,8 @@
       <c r="B26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="117">
+      <c r="C26" s="119"/>
+      <c r="D26" s="102">
         <v>40</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -9423,7 +9493,7 @@
       <c r="H26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="99">
         <v>13</v>
       </c>
@@ -9439,7 +9509,7 @@
       <c r="N26" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="O26" s="118"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="99">
         <v>82</v>
       </c>
@@ -9455,7 +9525,7 @@
       <c r="T26" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="U26" s="118"/>
+      <c r="U26" s="119"/>
       <c r="V26" s="99"/>
       <c r="W26" s="14" t="s">
         <v>288</v>
@@ -9469,7 +9539,7 @@
       <c r="Z26" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="AA26" s="118"/>
+      <c r="AA26" s="119"/>
       <c r="AB26" s="99">
         <v>29</v>
       </c>
@@ -9487,8 +9557,8 @@
       <c r="B27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="117">
+      <c r="C27" s="120"/>
+      <c r="D27" s="102">
         <v>8</v>
       </c>
       <c r="E27" s="14" t="s">
@@ -9503,7 +9573,7 @@
       <c r="H27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="99">
         <v>77</v>
       </c>
@@ -9519,7 +9589,7 @@
       <c r="N27" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O27" s="119"/>
+      <c r="O27" s="120"/>
       <c r="P27" s="99">
         <v>51</v>
       </c>
@@ -9535,7 +9605,7 @@
       <c r="T27" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U27" s="119"/>
+      <c r="U27" s="120"/>
       <c r="V27" s="99"/>
       <c r="W27" s="14" t="s">
         <v>289</v>
@@ -9549,7 +9619,7 @@
       <c r="Z27" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="AA27" s="119"/>
+      <c r="AA27" s="120"/>
       <c r="AB27" s="99">
         <v>93</v>
       </c>
@@ -9567,10 +9637,10 @@
       <c r="B28" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="118" t="s">
         <v>704</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="102">
         <v>38</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -9585,7 +9655,7 @@
       <c r="H28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="116" t="s">
+      <c r="I28" s="118" t="s">
         <v>704</v>
       </c>
       <c r="J28" s="99">
@@ -9603,7 +9673,7 @@
       <c r="N28" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="O28" s="116" t="s">
+      <c r="O28" s="118" t="s">
         <v>704</v>
       </c>
       <c r="P28" s="99">
@@ -9621,7 +9691,7 @@
       <c r="T28" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="U28" s="116" t="s">
+      <c r="U28" s="118" t="s">
         <v>704</v>
       </c>
       <c r="V28" s="99"/>
@@ -9637,7 +9707,7 @@
       <c r="Z28" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="AA28" s="116" t="s">
+      <c r="AA28" s="118" t="s">
         <v>704</v>
       </c>
       <c r="AB28" s="99">
@@ -9657,8 +9727,8 @@
       <c r="B29" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="117">
+      <c r="C29" s="119"/>
+      <c r="D29" s="102">
         <v>6</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -9673,7 +9743,7 @@
       <c r="H29" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="118"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="99">
         <v>75</v>
       </c>
@@ -9689,7 +9759,7 @@
       <c r="N29" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O29" s="118"/>
+      <c r="O29" s="119"/>
       <c r="P29" s="99">
         <v>49</v>
       </c>
@@ -9705,7 +9775,7 @@
       <c r="T29" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="U29" s="118"/>
+      <c r="U29" s="119"/>
       <c r="V29" s="99"/>
       <c r="W29" s="15" t="s">
         <v>380</v>
@@ -9719,7 +9789,7 @@
       <c r="Z29" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="AA29" s="118"/>
+      <c r="AA29" s="119"/>
       <c r="AB29" s="99">
         <v>91</v>
       </c>
@@ -9737,8 +9807,8 @@
       <c r="B30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="117">
+      <c r="C30" s="119"/>
+      <c r="D30" s="102">
         <v>70</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -9753,7 +9823,7 @@
       <c r="H30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="118"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="99">
         <v>27</v>
       </c>
@@ -9769,7 +9839,7 @@
       <c r="N30" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="O30" s="118"/>
+      <c r="O30" s="119"/>
       <c r="P30" s="99">
         <v>17</v>
       </c>
@@ -9785,7 +9855,7 @@
       <c r="T30" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="U30" s="118"/>
+      <c r="U30" s="119"/>
       <c r="V30" s="99"/>
       <c r="W30" s="15" t="s">
         <v>381</v>
@@ -9799,7 +9869,7 @@
       <c r="Z30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AA30" s="118"/>
+      <c r="AA30" s="119"/>
       <c r="AB30" s="99">
         <v>59</v>
       </c>
@@ -9817,8 +9887,8 @@
       <c r="B31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="117">
+      <c r="C31" s="119"/>
+      <c r="D31" s="102">
         <v>39</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -9833,7 +9903,7 @@
       <c r="H31" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="118"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="99">
         <v>12</v>
       </c>
@@ -9849,7 +9919,7 @@
       <c r="N31" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O31" s="118"/>
+      <c r="O31" s="119"/>
       <c r="P31" s="99">
         <v>81</v>
       </c>
@@ -9865,7 +9935,7 @@
       <c r="T31" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="U31" s="118"/>
+      <c r="U31" s="119"/>
       <c r="V31" s="99"/>
       <c r="W31" s="15" t="s">
         <v>382</v>
@@ -9879,7 +9949,7 @@
       <c r="Z31" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AA31" s="118"/>
+      <c r="AA31" s="119"/>
       <c r="AB31" s="99">
         <v>28</v>
       </c>
@@ -9897,8 +9967,8 @@
       <c r="B32" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="117">
+      <c r="C32" s="119"/>
+      <c r="D32" s="102">
         <v>7</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -9913,7 +9983,7 @@
       <c r="H32" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="118"/>
+      <c r="I32" s="119"/>
       <c r="J32" s="99">
         <v>76</v>
       </c>
@@ -9929,7 +9999,7 @@
       <c r="N32" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="O32" s="118"/>
+      <c r="O32" s="119"/>
       <c r="P32" s="99">
         <v>50</v>
       </c>
@@ -9945,7 +10015,7 @@
       <c r="T32" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="U32" s="118"/>
+      <c r="U32" s="119"/>
       <c r="V32" s="99"/>
       <c r="W32" s="15" t="s">
         <v>383</v>
@@ -9959,7 +10029,7 @@
       <c r="Z32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AA32" s="118"/>
+      <c r="AA32" s="119"/>
       <c r="AB32" s="99">
         <v>92</v>
       </c>
@@ -9977,8 +10047,8 @@
       <c r="B33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="117">
+      <c r="C33" s="119"/>
+      <c r="D33" s="102">
         <v>71</v>
       </c>
       <c r="E33" s="15" t="s">
@@ -9993,7 +10063,7 @@
       <c r="H33" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="118"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="99">
         <v>45</v>
       </c>
@@ -10009,7 +10079,7 @@
       <c r="N33" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="O33" s="118"/>
+      <c r="O33" s="119"/>
       <c r="P33" s="99">
         <v>18</v>
       </c>
@@ -10025,7 +10095,7 @@
       <c r="T33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="U33" s="118"/>
+      <c r="U33" s="119"/>
       <c r="V33" s="99"/>
       <c r="W33" s="15" t="s">
         <v>384</v>
@@ -10039,7 +10109,7 @@
       <c r="Z33" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AA33" s="118"/>
+      <c r="AA33" s="119"/>
       <c r="AB33" s="99">
         <v>61</v>
       </c>
@@ -10057,8 +10127,8 @@
       <c r="B34" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="117">
+      <c r="C34" s="119"/>
+      <c r="D34" s="102">
         <v>40</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -10073,7 +10143,7 @@
       <c r="H34" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="118"/>
+      <c r="I34" s="119"/>
       <c r="J34" s="99">
         <v>13</v>
       </c>
@@ -10089,7 +10159,7 @@
       <c r="N34" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="O34" s="118"/>
+      <c r="O34" s="119"/>
       <c r="P34" s="99">
         <v>82</v>
       </c>
@@ -10105,7 +10175,7 @@
       <c r="T34" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U34" s="118"/>
+      <c r="U34" s="119"/>
       <c r="V34" s="99"/>
       <c r="W34" s="15" t="s">
         <v>385</v>
@@ -10119,7 +10189,7 @@
       <c r="Z34" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="AA34" s="118"/>
+      <c r="AA34" s="119"/>
       <c r="AB34" s="99">
         <v>29</v>
       </c>
@@ -10137,8 +10207,8 @@
       <c r="B35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="120">
+      <c r="C35" s="121"/>
+      <c r="D35" s="103">
         <v>8</v>
       </c>
       <c r="E35" s="18" t="s">
@@ -10153,7 +10223,7 @@
       <c r="H35" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="122"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="100">
         <v>77</v>
       </c>
@@ -10169,7 +10239,7 @@
       <c r="N35" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="O35" s="122"/>
+      <c r="O35" s="121"/>
       <c r="P35" s="100">
         <v>51</v>
       </c>
@@ -10185,7 +10255,7 @@
       <c r="T35" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="U35" s="122"/>
+      <c r="U35" s="121"/>
       <c r="V35" s="100"/>
       <c r="W35" s="18" t="s">
         <v>386</v>
@@ -10199,7 +10269,7 @@
       <c r="Z35" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AA35" s="122"/>
+      <c r="AA35" s="121"/>
       <c r="AB35" s="100">
         <v>93</v>
       </c>
@@ -10215,12 +10285,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA12:AA19"/>
-    <mergeCell ref="AA28:AA35"/>
-    <mergeCell ref="U28:U35"/>
-    <mergeCell ref="O28:O35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="I12:I19"/>
     <mergeCell ref="O4:O11"/>
     <mergeCell ref="U4:U11"/>
     <mergeCell ref="AA4:AA11"/>
@@ -10229,12 +10299,12 @@
     <mergeCell ref="AA20:AA27"/>
     <mergeCell ref="O12:O19"/>
     <mergeCell ref="U12:U19"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="AA12:AA19"/>
+    <mergeCell ref="AA28:AA35"/>
+    <mergeCell ref="U28:U35"/>
+    <mergeCell ref="O28:O35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="I28:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" scale="54" orientation="landscape" r:id="rId1"/>
@@ -10500,7 +10570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A174"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
@@ -12602,16 +12672,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="122" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="E1" s="115" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="E1" s="122" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">

--- a/MALT191104.xlsx
+++ b/MALT191104.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1260"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="4485" windowHeight="1260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command Table" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="MALTMMI" sheetId="12" r:id="rId8"/>
     <sheet name="MALTMMI IO" sheetId="13" r:id="rId9"/>
     <sheet name="Todo" sheetId="14" r:id="rId10"/>
+    <sheet name="Munka1" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -41,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Margit Robert:</t>
         </r>
@@ -50,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="708">
   <si>
     <t>A #10 jelenti a 10-es cimet</t>
   </si>
@@ -2420,7 +2421,7 @@
     </r>
   </si>
   <si>
-    <t>last update: 230102</t>
+    <t>last update: 230502</t>
   </si>
 </sst>
 </file>
@@ -2513,14 +2514,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2941,7 +2942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3219,11 +3220,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3264,21 +3278,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3306,13 +3316,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>321466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>220263</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1049237</xdr:rowOff>
@@ -4408,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,26 +4443,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="108" t="s">
         <v>568</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105" t="s">
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
         <v>569</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
     </row>
     <row r="2" spans="2:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
@@ -4521,17 +4531,17 @@
     </row>
     <row r="3" spans="2:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="28" t="s">
         <v>25</v>
       </c>
@@ -7231,22 +7241,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="4" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="6" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
@@ -7258,103 +7282,117 @@
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="2:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="61"/>
-      <c r="D2" s="112" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+    </row>
+    <row r="2" spans="2:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="61"/>
+      <c r="F2" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="63"/>
-      <c r="D3" s="116" t="s">
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117" t="s">
+      <c r="D3" s="121"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="64"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="61"/>
-      <c r="D4" s="65">
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="107">
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="D4" s="107">
         <v>2</v>
       </c>
+      <c r="E4" s="61"/>
       <c r="F4" s="65">
+        <v>1</v>
+      </c>
+      <c r="G4" s="65">
+        <v>2</v>
+      </c>
+      <c r="H4" s="65">
         <v>3</v>
       </c>
-      <c r="G4" s="65">
+      <c r="I4" s="65">
         <v>4</v>
       </c>
-      <c r="H4" s="65">
+      <c r="J4" s="65">
         <v>5</v>
       </c>
-      <c r="I4" s="65">
+      <c r="K4" s="65">
         <v>6</v>
       </c>
-      <c r="J4" s="65">
+      <c r="L4" s="65">
         <v>7</v>
       </c>
-      <c r="K4" s="65">
+      <c r="M4" s="65">
         <v>8</v>
       </c>
-      <c r="L4" s="64"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="64"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="65" t="s">
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="F6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="72" t="s">
@@ -7369,31 +7407,37 @@
       <c r="K6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="F7" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="H7" s="72" t="s">
         <v>70</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>69</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>69</v>
@@ -7404,34 +7448,40 @@
       <c r="K7" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="71" t="s">
+      <c r="F8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="72" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" s="72" t="s">
         <v>69</v>
@@ -7439,44 +7489,52 @@
       <c r="K8" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="72">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="F9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="G9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="H9" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="72"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="124"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="72"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="72" t="s">
         <v>70</v>
       </c>
@@ -7487,25 +7545,27 @@
         <v>70</v>
       </c>
       <c r="K10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="72">
+      <c r="N10" s="72">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="123" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="110" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="72" t="s">
         <v>70</v>
       </c>
@@ -7518,14 +7578,20 @@
       <c r="K11" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="72">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="123"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="110"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7533,25 +7599,30 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="123"/>
-      <c r="J13" s="125" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="110"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="L13" s="111" t="s">
         <v>707</v>
       </c>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7566,8 +7637,8 @@
   </sheetPr>
   <dimension ref="B1:AE35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7687,7 +7758,7 @@
       <c r="B4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="123" t="s">
         <v>705</v>
       </c>
       <c r="D4" s="102">
@@ -7705,7 +7776,7 @@
       <c r="H4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="123" t="s">
         <v>705</v>
       </c>
       <c r="J4" s="99">
@@ -7723,7 +7794,7 @@
       <c r="N4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="123" t="s">
         <v>705</v>
       </c>
       <c r="P4" s="99">
@@ -7741,7 +7812,7 @@
       <c r="T4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="U4" s="118" t="s">
+      <c r="U4" s="123" t="s">
         <v>705</v>
       </c>
       <c r="V4" s="99"/>
@@ -7757,7 +7828,7 @@
       <c r="Z4" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="123" t="s">
         <v>705</v>
       </c>
       <c r="AB4" s="99">
@@ -7777,7 +7848,7 @@
       <c r="B5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="119"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="102">
         <v>67</v>
       </c>
@@ -7793,7 +7864,7 @@
       <c r="H5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="119"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="99">
         <v>41</v>
       </c>
@@ -7809,7 +7880,7 @@
       <c r="N5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="119"/>
+      <c r="O5" s="124"/>
       <c r="P5" s="99">
         <v>14</v>
       </c>
@@ -7825,7 +7896,7 @@
       <c r="T5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="119"/>
+      <c r="U5" s="124"/>
       <c r="V5" s="99"/>
       <c r="W5" s="14" t="s">
         <v>275</v>
@@ -7839,7 +7910,7 @@
       <c r="Z5" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" s="119"/>
+      <c r="AA5" s="124"/>
       <c r="AB5" s="99">
         <v>57</v>
       </c>
@@ -7857,7 +7928,7 @@
       <c r="B6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="102">
         <v>36</v>
       </c>
@@ -7873,7 +7944,7 @@
       <c r="H6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="99">
         <v>9</v>
       </c>
@@ -7889,7 +7960,7 @@
       <c r="N6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="119"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="99">
         <v>78</v>
       </c>
@@ -7905,7 +7976,7 @@
       <c r="T6" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="119"/>
+      <c r="U6" s="124"/>
       <c r="V6" s="99"/>
       <c r="W6" s="14" t="s">
         <v>276</v>
@@ -7919,7 +7990,7 @@
       <c r="Z6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="AA6" s="119"/>
+      <c r="AA6" s="124"/>
       <c r="AB6" s="99">
         <v>25</v>
       </c>
@@ -7937,7 +8008,7 @@
       <c r="B7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="102">
         <v>4</v>
       </c>
@@ -7953,7 +8024,7 @@
       <c r="H7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="99">
         <v>73</v>
       </c>
@@ -7969,7 +8040,7 @@
       <c r="N7" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="119"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="99">
         <v>47</v>
       </c>
@@ -7985,7 +8056,7 @@
       <c r="T7" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="U7" s="119"/>
+      <c r="U7" s="124"/>
       <c r="V7" s="99"/>
       <c r="W7" s="14" t="s">
         <v>277</v>
@@ -7999,7 +8070,7 @@
       <c r="Z7" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="AA7" s="119"/>
+      <c r="AA7" s="124"/>
       <c r="AB7" s="99">
         <v>89</v>
       </c>
@@ -8017,7 +8088,7 @@
       <c r="B8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="102">
         <v>68</v>
       </c>
@@ -8033,7 +8104,7 @@
       <c r="H8" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="119"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="99">
         <v>42</v>
       </c>
@@ -8049,7 +8120,7 @@
       <c r="N8" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="119"/>
+      <c r="O8" s="124"/>
       <c r="P8" s="99">
         <v>15</v>
       </c>
@@ -8065,7 +8136,7 @@
       <c r="T8" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="U8" s="119"/>
+      <c r="U8" s="124"/>
       <c r="V8" s="99"/>
       <c r="W8" s="14" t="s">
         <v>278</v>
@@ -8079,7 +8150,7 @@
       <c r="Z8" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AA8" s="119"/>
+      <c r="AA8" s="124"/>
       <c r="AB8" s="99">
         <v>69</v>
       </c>
@@ -8097,7 +8168,7 @@
       <c r="B9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="102">
         <v>37</v>
       </c>
@@ -8113,7 +8184,7 @@
       <c r="H9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="99">
         <v>10</v>
       </c>
@@ -8129,7 +8200,7 @@
       <c r="N9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="119"/>
+      <c r="O9" s="124"/>
       <c r="P9" s="99">
         <v>79</v>
       </c>
@@ -8145,7 +8216,7 @@
       <c r="T9" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="119"/>
+      <c r="U9" s="124"/>
       <c r="V9" s="99"/>
       <c r="W9" s="14" t="s">
         <v>279</v>
@@ -8159,7 +8230,7 @@
       <c r="Z9" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="AA9" s="119"/>
+      <c r="AA9" s="124"/>
       <c r="AB9" s="99">
         <v>26</v>
       </c>
@@ -8177,7 +8248,7 @@
       <c r="B10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="102">
         <v>10</v>
       </c>
@@ -8193,7 +8264,7 @@
       <c r="H10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="119"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="99">
         <v>74</v>
       </c>
@@ -8209,7 +8280,7 @@
       <c r="N10" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="O10" s="119"/>
+      <c r="O10" s="124"/>
       <c r="P10" s="99">
         <v>48</v>
       </c>
@@ -8225,7 +8296,7 @@
       <c r="T10" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="U10" s="119"/>
+      <c r="U10" s="124"/>
       <c r="V10" s="99"/>
       <c r="W10" s="14" t="s">
         <v>280</v>
@@ -8239,7 +8310,7 @@
       <c r="Z10" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AA10" s="119"/>
+      <c r="AA10" s="124"/>
       <c r="AB10" s="99">
         <v>90</v>
       </c>
@@ -8257,7 +8328,7 @@
       <c r="B11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="120"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="102">
         <v>69</v>
       </c>
@@ -8273,7 +8344,7 @@
       <c r="H11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="120"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="99">
         <v>43</v>
       </c>
@@ -8289,7 +8360,7 @@
       <c r="N11" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="120"/>
+      <c r="O11" s="126"/>
       <c r="P11" s="99">
         <v>16</v>
       </c>
@@ -8305,7 +8376,7 @@
       <c r="T11" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="U11" s="120"/>
+      <c r="U11" s="126"/>
       <c r="V11" s="99"/>
       <c r="W11" s="14" t="s">
         <v>281</v>
@@ -8319,7 +8390,7 @@
       <c r="Z11" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="AA11" s="120"/>
+      <c r="AA11" s="126"/>
       <c r="AB11" s="99">
         <v>59</v>
       </c>
@@ -8337,7 +8408,7 @@
       <c r="B12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="123" t="s">
         <v>704</v>
       </c>
       <c r="D12" s="102">
@@ -8355,7 +8426,7 @@
       <c r="H12" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="123" t="s">
         <v>704</v>
       </c>
       <c r="J12" s="99">
@@ -8373,7 +8444,7 @@
       <c r="N12" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="118" t="s">
+      <c r="O12" s="123" t="s">
         <v>704</v>
       </c>
       <c r="P12" s="99">
@@ -8391,7 +8462,7 @@
       <c r="T12" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="U12" s="118" t="s">
+      <c r="U12" s="123" t="s">
         <v>704</v>
       </c>
       <c r="V12" s="99"/>
@@ -8407,7 +8478,7 @@
       <c r="Z12" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="AA12" s="118" t="s">
+      <c r="AA12" s="123" t="s">
         <v>704</v>
       </c>
       <c r="AB12" s="99">
@@ -8427,7 +8498,7 @@
       <c r="B13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="119"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="102">
         <v>67</v>
       </c>
@@ -8443,7 +8514,7 @@
       <c r="H13" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="99">
         <v>41</v>
       </c>
@@ -8459,7 +8530,7 @@
       <c r="N13" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="124"/>
       <c r="P13" s="99">
         <v>14</v>
       </c>
@@ -8475,7 +8546,7 @@
       <c r="T13" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="U13" s="119"/>
+      <c r="U13" s="124"/>
       <c r="V13" s="99"/>
       <c r="W13" s="15" t="s">
         <v>372</v>
@@ -8489,7 +8560,7 @@
       <c r="Z13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="AA13" s="119"/>
+      <c r="AA13" s="124"/>
       <c r="AB13" s="99">
         <v>57</v>
       </c>
@@ -8507,7 +8578,7 @@
       <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="119"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="102">
         <v>36</v>
       </c>
@@ -8523,7 +8594,7 @@
       <c r="H14" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="99">
         <v>9</v>
       </c>
@@ -8539,7 +8610,7 @@
       <c r="N14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="119"/>
+      <c r="O14" s="124"/>
       <c r="P14" s="99">
         <v>78</v>
       </c>
@@ -8555,7 +8626,7 @@
       <c r="T14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="U14" s="119"/>
+      <c r="U14" s="124"/>
       <c r="V14" s="99"/>
       <c r="W14" s="15" t="s">
         <v>373</v>
@@ -8569,7 +8640,7 @@
       <c r="Z14" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AA14" s="119"/>
+      <c r="AA14" s="124"/>
       <c r="AB14" s="99">
         <v>25</v>
       </c>
@@ -8587,7 +8658,7 @@
       <c r="B15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="119"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="102">
         <v>4</v>
       </c>
@@ -8603,7 +8674,7 @@
       <c r="H15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="99">
         <v>73</v>
       </c>
@@ -8619,7 +8690,7 @@
       <c r="N15" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O15" s="119"/>
+      <c r="O15" s="124"/>
       <c r="P15" s="99">
         <v>47</v>
       </c>
@@ -8635,7 +8706,7 @@
       <c r="T15" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="U15" s="119"/>
+      <c r="U15" s="124"/>
       <c r="V15" s="99"/>
       <c r="W15" s="15" t="s">
         <v>374</v>
@@ -8649,7 +8720,7 @@
       <c r="Z15" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AA15" s="119"/>
+      <c r="AA15" s="124"/>
       <c r="AB15" s="99">
         <v>89</v>
       </c>
@@ -8667,7 +8738,7 @@
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="102">
         <v>68</v>
       </c>
@@ -8683,7 +8754,7 @@
       <c r="H16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="99">
         <v>42</v>
       </c>
@@ -8699,7 +8770,7 @@
       <c r="N16" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="119"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="99">
         <v>15</v>
       </c>
@@ -8715,7 +8786,7 @@
       <c r="T16" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="U16" s="119"/>
+      <c r="U16" s="124"/>
       <c r="V16" s="99"/>
       <c r="W16" s="15" t="s">
         <v>375</v>
@@ -8729,7 +8800,7 @@
       <c r="Z16" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="AA16" s="119"/>
+      <c r="AA16" s="124"/>
       <c r="AB16" s="99">
         <v>69</v>
       </c>
@@ -8747,7 +8818,7 @@
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="102">
         <v>10</v>
       </c>
@@ -8763,7 +8834,7 @@
       <c r="H17" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="99">
         <v>10</v>
       </c>
@@ -8779,7 +8850,7 @@
       <c r="N17" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="O17" s="119"/>
+      <c r="O17" s="124"/>
       <c r="P17" s="99">
         <v>79</v>
       </c>
@@ -8795,7 +8866,7 @@
       <c r="T17" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="119"/>
+      <c r="U17" s="124"/>
       <c r="V17" s="99"/>
       <c r="W17" s="15" t="s">
         <v>376</v>
@@ -8809,7 +8880,7 @@
       <c r="Z17" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="AA17" s="119"/>
+      <c r="AA17" s="124"/>
       <c r="AB17" s="99">
         <v>26</v>
       </c>
@@ -8827,7 +8898,7 @@
       <c r="B18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="119"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="102">
         <v>5</v>
       </c>
@@ -8843,7 +8914,7 @@
       <c r="H18" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="99">
         <v>74</v>
       </c>
@@ -8859,7 +8930,7 @@
       <c r="N18" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="99">
         <v>48</v>
       </c>
@@ -8875,7 +8946,7 @@
       <c r="T18" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="U18" s="119"/>
+      <c r="U18" s="124"/>
       <c r="V18" s="99"/>
       <c r="W18" s="15" t="s">
         <v>377</v>
@@ -8889,7 +8960,7 @@
       <c r="Z18" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="AA18" s="119"/>
+      <c r="AA18" s="124"/>
       <c r="AB18" s="99">
         <v>90</v>
       </c>
@@ -8907,7 +8978,7 @@
       <c r="B19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="102">
         <v>69</v>
       </c>
@@ -8923,7 +8994,7 @@
       <c r="H19" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="120"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="99">
         <v>43</v>
       </c>
@@ -8939,7 +9010,7 @@
       <c r="N19" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="O19" s="120"/>
+      <c r="O19" s="126"/>
       <c r="P19" s="99">
         <v>16</v>
       </c>
@@ -8955,7 +9026,7 @@
       <c r="T19" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="U19" s="120"/>
+      <c r="U19" s="126"/>
       <c r="V19" s="99"/>
       <c r="W19" s="15" t="s">
         <v>378</v>
@@ -8969,7 +9040,7 @@
       <c r="Z19" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="AA19" s="120"/>
+      <c r="AA19" s="126"/>
       <c r="AB19" s="99">
         <v>59</v>
       </c>
@@ -8987,7 +9058,7 @@
       <c r="B20" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="123" t="s">
         <v>705</v>
       </c>
       <c r="D20" s="102">
@@ -9005,7 +9076,7 @@
       <c r="H20" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="123" t="s">
         <v>705</v>
       </c>
       <c r="J20" s="99">
@@ -9023,7 +9094,7 @@
       <c r="N20" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="O20" s="118" t="s">
+      <c r="O20" s="123" t="s">
         <v>705</v>
       </c>
       <c r="P20" s="99">
@@ -9041,7 +9112,7 @@
       <c r="T20" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="U20" s="118" t="s">
+      <c r="U20" s="123" t="s">
         <v>705</v>
       </c>
       <c r="V20" s="99"/>
@@ -9057,7 +9128,7 @@
       <c r="Z20" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="AA20" s="118" t="s">
+      <c r="AA20" s="123" t="s">
         <v>705</v>
       </c>
       <c r="AB20" s="99">
@@ -9077,7 +9148,7 @@
       <c r="B21" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="102">
         <v>6</v>
       </c>
@@ -9093,7 +9164,7 @@
       <c r="H21" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="124"/>
       <c r="J21" s="99">
         <v>75</v>
       </c>
@@ -9109,7 +9180,7 @@
       <c r="N21" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="O21" s="119"/>
+      <c r="O21" s="124"/>
       <c r="P21" s="99">
         <v>49</v>
       </c>
@@ -9125,7 +9196,7 @@
       <c r="T21" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="U21" s="119"/>
+      <c r="U21" s="124"/>
       <c r="V21" s="99"/>
       <c r="W21" s="14" t="s">
         <v>283</v>
@@ -9139,7 +9210,7 @@
       <c r="Z21" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="AA21" s="119"/>
+      <c r="AA21" s="124"/>
       <c r="AB21" s="99">
         <v>91</v>
       </c>
@@ -9157,7 +9228,7 @@
       <c r="B22" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="102">
         <v>70</v>
       </c>
@@ -9173,7 +9244,7 @@
       <c r="H22" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="124"/>
       <c r="J22" s="99">
         <v>27</v>
       </c>
@@ -9189,7 +9260,7 @@
       <c r="N22" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="O22" s="119"/>
+      <c r="O22" s="124"/>
       <c r="P22" s="99">
         <v>17</v>
       </c>
@@ -9205,7 +9276,7 @@
       <c r="T22" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="U22" s="119"/>
+      <c r="U22" s="124"/>
       <c r="V22" s="99"/>
       <c r="W22" s="14" t="s">
         <v>284</v>
@@ -9219,7 +9290,7 @@
       <c r="Z22" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AA22" s="119"/>
+      <c r="AA22" s="124"/>
       <c r="AB22" s="99">
         <v>59</v>
       </c>
@@ -9237,7 +9308,7 @@
       <c r="B23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="119"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="102">
         <v>39</v>
       </c>
@@ -9253,7 +9324,7 @@
       <c r="H23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="124"/>
       <c r="J23" s="99">
         <v>12</v>
       </c>
@@ -9269,7 +9340,7 @@
       <c r="N23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="O23" s="119"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="99">
         <v>81</v>
       </c>
@@ -9285,7 +9356,7 @@
       <c r="T23" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="U23" s="119"/>
+      <c r="U23" s="124"/>
       <c r="V23" s="99"/>
       <c r="W23" s="14" t="s">
         <v>285</v>
@@ -9299,7 +9370,7 @@
       <c r="Z23" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AA23" s="119"/>
+      <c r="AA23" s="124"/>
       <c r="AB23" s="99">
         <v>28</v>
       </c>
@@ -9317,7 +9388,7 @@
       <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="119"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="102">
         <v>7</v>
       </c>
@@ -9333,7 +9404,7 @@
       <c r="H24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="124"/>
       <c r="J24" s="99">
         <v>76</v>
       </c>
@@ -9349,7 +9420,7 @@
       <c r="N24" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="124"/>
       <c r="P24" s="99">
         <v>50</v>
       </c>
@@ -9365,7 +9436,7 @@
       <c r="T24" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="U24" s="119"/>
+      <c r="U24" s="124"/>
       <c r="V24" s="99"/>
       <c r="W24" s="14" t="s">
         <v>286</v>
@@ -9379,7 +9450,7 @@
       <c r="Z24" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="AA24" s="119"/>
+      <c r="AA24" s="124"/>
       <c r="AB24" s="99">
         <v>92</v>
       </c>
@@ -9397,7 +9468,7 @@
       <c r="B25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="102">
         <v>71</v>
       </c>
@@ -9413,7 +9484,7 @@
       <c r="H25" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="124"/>
       <c r="J25" s="99">
         <v>45</v>
       </c>
@@ -9429,7 +9500,7 @@
       <c r="N25" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="O25" s="119"/>
+      <c r="O25" s="124"/>
       <c r="P25" s="99">
         <v>18</v>
       </c>
@@ -9445,7 +9516,7 @@
       <c r="T25" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="U25" s="119"/>
+      <c r="U25" s="124"/>
       <c r="V25" s="99"/>
       <c r="W25" s="14" t="s">
         <v>287</v>
@@ -9459,7 +9530,7 @@
       <c r="Z25" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="AA25" s="119"/>
+      <c r="AA25" s="124"/>
       <c r="AB25" s="99">
         <v>61</v>
       </c>
@@ -9477,7 +9548,7 @@
       <c r="B26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="102">
         <v>40</v>
       </c>
@@ -9493,7 +9564,7 @@
       <c r="H26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="99">
         <v>13</v>
       </c>
@@ -9509,7 +9580,7 @@
       <c r="N26" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="O26" s="119"/>
+      <c r="O26" s="124"/>
       <c r="P26" s="99">
         <v>82</v>
       </c>
@@ -9525,7 +9596,7 @@
       <c r="T26" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="U26" s="119"/>
+      <c r="U26" s="124"/>
       <c r="V26" s="99"/>
       <c r="W26" s="14" t="s">
         <v>288</v>
@@ -9539,7 +9610,7 @@
       <c r="Z26" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="AA26" s="119"/>
+      <c r="AA26" s="124"/>
       <c r="AB26" s="99">
         <v>29</v>
       </c>
@@ -9557,7 +9628,7 @@
       <c r="B27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="120"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="102">
         <v>8</v>
       </c>
@@ -9573,7 +9644,7 @@
       <c r="H27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="120"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="99">
         <v>77</v>
       </c>
@@ -9589,7 +9660,7 @@
       <c r="N27" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O27" s="120"/>
+      <c r="O27" s="126"/>
       <c r="P27" s="99">
         <v>51</v>
       </c>
@@ -9605,7 +9676,7 @@
       <c r="T27" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U27" s="120"/>
+      <c r="U27" s="126"/>
       <c r="V27" s="99"/>
       <c r="W27" s="14" t="s">
         <v>289</v>
@@ -9619,7 +9690,7 @@
       <c r="Z27" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="AA27" s="120"/>
+      <c r="AA27" s="126"/>
       <c r="AB27" s="99">
         <v>93</v>
       </c>
@@ -9637,7 +9708,7 @@
       <c r="B28" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="123" t="s">
         <v>704</v>
       </c>
       <c r="D28" s="102">
@@ -9655,7 +9726,7 @@
       <c r="H28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="118" t="s">
+      <c r="I28" s="123" t="s">
         <v>704</v>
       </c>
       <c r="J28" s="99">
@@ -9673,7 +9744,7 @@
       <c r="N28" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="O28" s="118" t="s">
+      <c r="O28" s="123" t="s">
         <v>704</v>
       </c>
       <c r="P28" s="99">
@@ -9691,7 +9762,7 @@
       <c r="T28" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="U28" s="118" t="s">
+      <c r="U28" s="123" t="s">
         <v>704</v>
       </c>
       <c r="V28" s="99"/>
@@ -9707,7 +9778,7 @@
       <c r="Z28" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="AA28" s="118" t="s">
+      <c r="AA28" s="123" t="s">
         <v>704</v>
       </c>
       <c r="AB28" s="99">
@@ -9727,7 +9798,7 @@
       <c r="B29" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="102">
         <v>6</v>
       </c>
@@ -9743,7 +9814,7 @@
       <c r="H29" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="119"/>
+      <c r="I29" s="124"/>
       <c r="J29" s="99">
         <v>75</v>
       </c>
@@ -9759,7 +9830,7 @@
       <c r="N29" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O29" s="119"/>
+      <c r="O29" s="124"/>
       <c r="P29" s="99">
         <v>49</v>
       </c>
@@ -9775,7 +9846,7 @@
       <c r="T29" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="U29" s="119"/>
+      <c r="U29" s="124"/>
       <c r="V29" s="99"/>
       <c r="W29" s="15" t="s">
         <v>380</v>
@@ -9789,7 +9860,7 @@
       <c r="Z29" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="AA29" s="119"/>
+      <c r="AA29" s="124"/>
       <c r="AB29" s="99">
         <v>91</v>
       </c>
@@ -9807,7 +9878,7 @@
       <c r="B30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="119"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="102">
         <v>70</v>
       </c>
@@ -9823,7 +9894,7 @@
       <c r="H30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="119"/>
+      <c r="I30" s="124"/>
       <c r="J30" s="99">
         <v>27</v>
       </c>
@@ -9839,7 +9910,7 @@
       <c r="N30" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="O30" s="119"/>
+      <c r="O30" s="124"/>
       <c r="P30" s="99">
         <v>17</v>
       </c>
@@ -9855,7 +9926,7 @@
       <c r="T30" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="U30" s="119"/>
+      <c r="U30" s="124"/>
       <c r="V30" s="99"/>
       <c r="W30" s="15" t="s">
         <v>381</v>
@@ -9869,7 +9940,7 @@
       <c r="Z30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AA30" s="119"/>
+      <c r="AA30" s="124"/>
       <c r="AB30" s="99">
         <v>59</v>
       </c>
@@ -9887,7 +9958,7 @@
       <c r="B31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="102">
         <v>39</v>
       </c>
@@ -9903,7 +9974,7 @@
       <c r="H31" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="119"/>
+      <c r="I31" s="124"/>
       <c r="J31" s="99">
         <v>12</v>
       </c>
@@ -9919,7 +9990,7 @@
       <c r="N31" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O31" s="119"/>
+      <c r="O31" s="124"/>
       <c r="P31" s="99">
         <v>81</v>
       </c>
@@ -9935,7 +10006,7 @@
       <c r="T31" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="U31" s="119"/>
+      <c r="U31" s="124"/>
       <c r="V31" s="99"/>
       <c r="W31" s="15" t="s">
         <v>382</v>
@@ -9949,7 +10020,7 @@
       <c r="Z31" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AA31" s="119"/>
+      <c r="AA31" s="124"/>
       <c r="AB31" s="99">
         <v>28</v>
       </c>
@@ -9967,7 +10038,7 @@
       <c r="B32" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="119"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="102">
         <v>7</v>
       </c>
@@ -9983,7 +10054,7 @@
       <c r="H32" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="119"/>
+      <c r="I32" s="124"/>
       <c r="J32" s="99">
         <v>76</v>
       </c>
@@ -9999,7 +10070,7 @@
       <c r="N32" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="O32" s="119"/>
+      <c r="O32" s="124"/>
       <c r="P32" s="99">
         <v>50</v>
       </c>
@@ -10015,7 +10086,7 @@
       <c r="T32" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="U32" s="119"/>
+      <c r="U32" s="124"/>
       <c r="V32" s="99"/>
       <c r="W32" s="15" t="s">
         <v>383</v>
@@ -10029,7 +10100,7 @@
       <c r="Z32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AA32" s="119"/>
+      <c r="AA32" s="124"/>
       <c r="AB32" s="99">
         <v>92</v>
       </c>
@@ -10047,7 +10118,7 @@
       <c r="B33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="102">
         <v>71</v>
       </c>
@@ -10063,7 +10134,7 @@
       <c r="H33" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="119"/>
+      <c r="I33" s="124"/>
       <c r="J33" s="99">
         <v>45</v>
       </c>
@@ -10079,7 +10150,7 @@
       <c r="N33" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="O33" s="119"/>
+      <c r="O33" s="124"/>
       <c r="P33" s="99">
         <v>18</v>
       </c>
@@ -10095,7 +10166,7 @@
       <c r="T33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="U33" s="119"/>
+      <c r="U33" s="124"/>
       <c r="V33" s="99"/>
       <c r="W33" s="15" t="s">
         <v>384</v>
@@ -10109,7 +10180,7 @@
       <c r="Z33" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AA33" s="119"/>
+      <c r="AA33" s="124"/>
       <c r="AB33" s="99">
         <v>61</v>
       </c>
@@ -10127,7 +10198,7 @@
       <c r="B34" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="102">
         <v>40</v>
       </c>
@@ -10143,7 +10214,7 @@
       <c r="H34" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="119"/>
+      <c r="I34" s="124"/>
       <c r="J34" s="99">
         <v>13</v>
       </c>
@@ -10159,7 +10230,7 @@
       <c r="N34" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="O34" s="119"/>
+      <c r="O34" s="124"/>
       <c r="P34" s="99">
         <v>82</v>
       </c>
@@ -10175,7 +10246,7 @@
       <c r="T34" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U34" s="119"/>
+      <c r="U34" s="124"/>
       <c r="V34" s="99"/>
       <c r="W34" s="15" t="s">
         <v>385</v>
@@ -10189,7 +10260,7 @@
       <c r="Z34" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="AA34" s="119"/>
+      <c r="AA34" s="124"/>
       <c r="AB34" s="99">
         <v>29</v>
       </c>
@@ -10207,7 +10278,7 @@
       <c r="B35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="103">
         <v>8</v>
       </c>
@@ -10223,7 +10294,7 @@
       <c r="H35" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="121"/>
+      <c r="I35" s="125"/>
       <c r="J35" s="100">
         <v>77</v>
       </c>
@@ -10239,7 +10310,7 @@
       <c r="N35" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="O35" s="121"/>
+      <c r="O35" s="125"/>
       <c r="P35" s="100">
         <v>51</v>
       </c>
@@ -10255,7 +10326,7 @@
       <c r="T35" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="U35" s="121"/>
+      <c r="U35" s="125"/>
       <c r="V35" s="100"/>
       <c r="W35" s="18" t="s">
         <v>386</v>
@@ -10269,7 +10340,7 @@
       <c r="Z35" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AA35" s="121"/>
+      <c r="AA35" s="125"/>
       <c r="AB35" s="100">
         <v>93</v>
       </c>
@@ -10570,7 +10641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A174"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
@@ -11209,7 +11280,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -12657,7 +12728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -12672,16 +12743,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="127" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="E1" s="122" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="E1" s="127" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
